--- a/mini project_v5_results.xlsx
+++ b/mini project_v5_results.xlsx
@@ -922,23 +922,23 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -969,19 +969,19 @@
         <v>0.238</v>
       </c>
       <c r="AS2" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="AU2" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="AV2" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="AW2" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="AX2" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>40</v>
+        <v>6.61</v>
       </c>
       <c r="BB2" t="n">
         <v>0.5</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
@@ -1140,23 +1140,23 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="X3" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0.238</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="AV3" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="AW3" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="AX3" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>40</v>
+        <v>6.61</v>
       </c>
       <c r="BB3" t="n">
         <v>0.5</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
@@ -1358,23 +1358,23 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -1405,19 +1405,19 @@
         <v>0.238</v>
       </c>
       <c r="AS4" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="AT4" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="AU4" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="AW4" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="AX4" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>40</v>
+        <v>6.61</v>
       </c>
       <c r="BB4" t="n">
         <v>0.5</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
@@ -1576,23 +1576,23 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1623,19 +1623,19 @@
         <v>0.238</v>
       </c>
       <c r="AS5" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="AU5" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="AV5" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="AW5" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="AX5" t="n">
         <v>0</v>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>40</v>
+        <v>6.61</v>
       </c>
       <c r="BB5" t="n">
         <v>0.5</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="BE5" t="n">
         <v>0</v>
@@ -1794,23 +1794,23 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="X6" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1841,19 +1841,19 @@
         <v>0.238</v>
       </c>
       <c r="AS6" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="AU6" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="AV6" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="AW6" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="AX6" t="n">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>40</v>
+        <v>6.61</v>
       </c>
       <c r="BB6" t="n">
         <v>0.5</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
@@ -2012,10 +2012,10 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>2.138122728244602</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1.069061364122301</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
@@ -2051,10 +2051,10 @@
         <v>0.238</v>
       </c>
       <c r="AS7" t="n">
-        <v>4</v>
+        <v>2.138122728244602</v>
       </c>
       <c r="AT7" t="n">
-        <v>2</v>
+        <v>1.069061364122301</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2222,23 +2222,23 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="X8" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -2269,19 +2269,19 @@
         <v>0.238</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="AV8" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="AW8" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="AX8" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>40</v>
+        <v>6.61</v>
       </c>
       <c r="BB8" t="n">
         <v>0.5</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
@@ -2440,35 +2440,35 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>0.6582606778110199</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>0.32913033890551</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
-        <v>4</v>
+        <v>0.7899128133732239</v>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>1.97478203343306</v>
       </c>
       <c r="X9" t="n">
-        <v>2</v>
+        <v>0.394956406686612</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>5</v>
+        <v>2.468477541791325</v>
       </c>
       <c r="AA9" t="n">
-        <v>12</v>
+        <v>5.924346100299179</v>
       </c>
       <c r="AB9" t="n">
-        <v>2</v>
+        <v>0.9873910167165298</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -2495,19 +2495,19 @@
         <v>0.238</v>
       </c>
       <c r="AS9" t="n">
-        <v>4</v>
+        <v>0.6582606778110199</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>0.32913033890551</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>3.258390355164549</v>
       </c>
       <c r="AV9" t="n">
-        <v>22</v>
+        <v>7.899128133732239</v>
       </c>
       <c r="AW9" t="n">
-        <v>4</v>
+        <v>1.382347423403142</v>
       </c>
       <c r="AX9" t="n">
         <v>0</v>
@@ -2519,16 +2519,16 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>198</v>
+        <v>25.74</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="BC9" t="n">
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>4</v>
+        <v>1.382347423403142</v>
       </c>
       <c r="BE9" t="n">
         <v>0</v>
@@ -2666,10 +2666,10 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>2.138122728244602</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1.069061364122301</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
@@ -2705,10 +2705,10 @@
         <v>0.238</v>
       </c>
       <c r="AS10" t="n">
-        <v>4</v>
+        <v>2.138122728244602</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>1.069061364122301</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2878,38 +2878,38 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>0.5267399537522321</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>0.2633699768761161</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
-        <v>4</v>
+        <v>0.6320879445026786</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>1.580219861256696</v>
       </c>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>0.3160439722513393</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>5</v>
+        <v>1.31684988438058</v>
       </c>
       <c r="AA11" t="n">
-        <v>4</v>
+        <v>1.053479907504464</v>
       </c>
       <c r="AB11" t="n">
-        <v>1</v>
+        <v>0.2633699768761161</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>2.106959815008929</v>
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
@@ -2933,40 +2933,40 @@
         <v>0.238</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>0.5267399537522321</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>0.2633699768761161</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>1.948937828883259</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>2.633699768761161</v>
       </c>
       <c r="AW11" t="n">
-        <v>3</v>
+        <v>0.5794139491274554</v>
       </c>
       <c r="AX11" t="n">
-        <v>8</v>
+        <v>2.106959815008929</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.89</v>
+        <v>1.08</v>
       </c>
       <c r="AZ11" t="n">
-        <v>2.67</v>
+        <v>3.64</v>
       </c>
       <c r="BA11" t="n">
-        <v>126</v>
+        <v>5.13</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>3</v>
+        <v>0.5794139491274554</v>
       </c>
       <c r="BE11" t="n">
         <v>0</v>
@@ -3112,26 +3112,26 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>0.6142091136348282</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>0.3071045568174141</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="n">
-        <v>5</v>
+        <v>1.535522784087071</v>
       </c>
       <c r="W12" t="n">
-        <v>4</v>
+        <v>1.228418227269656</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>0.3071045568174141</v>
       </c>
       <c r="Y12" t="n">
-        <v>8</v>
+        <v>2.456836454539313</v>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
@@ -3159,22 +3159,22 @@
         <v>0.238</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>0.6142091136348282</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>0.3071045568174141</v>
       </c>
       <c r="AU12" t="n">
-        <v>5</v>
+        <v>1.535522784087071</v>
       </c>
       <c r="AV12" t="n">
-        <v>4</v>
+        <v>1.228418227269656</v>
       </c>
       <c r="AW12" t="n">
-        <v>1</v>
+        <v>0.3071045568174141</v>
       </c>
       <c r="AX12" t="n">
-        <v>8</v>
+        <v>2.456836454539313</v>
       </c>
       <c r="AY12" t="n">
         <v>1.6</v>
@@ -3183,7 +3183,7 @@
         <v>8</v>
       </c>
       <c r="BA12" t="n">
-        <v>20</v>
+        <v>1.89</v>
       </c>
       <c r="BB12" t="n">
         <v>0.2</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>1</v>
+        <v>0.3071045568174141</v>
       </c>
       <c r="BE12" t="n">
         <v>0</v>
@@ -3336,23 +3336,23 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>1.443001443001443</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>0.7215007215007215</v>
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="n">
-        <v>4</v>
+        <v>1.443001443001443</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>3.607503607503608</v>
       </c>
       <c r="X13" t="n">
-        <v>2</v>
+        <v>0.7215007215007215</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -3383,19 +3383,19 @@
         <v>0.25</v>
       </c>
       <c r="AS13" t="n">
-        <v>4</v>
+        <v>1.443001443001443</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
+        <v>0.7215007215007215</v>
       </c>
       <c r="AU13" t="n">
-        <v>4</v>
+        <v>1.443001443001443</v>
       </c>
       <c r="AV13" t="n">
-        <v>10</v>
+        <v>3.607503607503608</v>
       </c>
       <c r="AW13" t="n">
-        <v>2</v>
+        <v>0.7215007215007215</v>
       </c>
       <c r="AX13" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>40</v>
+        <v>5.21</v>
       </c>
       <c r="BB13" t="n">
         <v>0.5</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>2</v>
+        <v>0.7215007215007215</v>
       </c>
       <c r="BE13" t="n">
         <v>0</v>
@@ -3554,23 +3554,23 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="X14" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -3601,19 +3601,19 @@
         <v>0.238</v>
       </c>
       <c r="AS14" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="AW14" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="AX14" t="n">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>40</v>
+        <v>6.61</v>
       </c>
       <c r="BB14" t="n">
         <v>0.5</v>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
@@ -3772,23 +3772,23 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -3819,19 +3819,19 @@
         <v>0.238</v>
       </c>
       <c r="AS15" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="AU15" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="AV15" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="AW15" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="AX15" t="n">
         <v>0</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="BA15" t="n">
-        <v>40</v>
+        <v>6.61</v>
       </c>
       <c r="BB15" t="n">
         <v>0.5</v>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -3990,23 +3990,23 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="W16" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -4037,19 +4037,19 @@
         <v>0.238</v>
       </c>
       <c r="AS16" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="AT16" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="AU16" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="AV16" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="AW16" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="AX16" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="BA16" t="n">
-        <v>40</v>
+        <v>6.61</v>
       </c>
       <c r="BB16" t="n">
         <v>0.5</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="BE16" t="n">
         <v>0</v>
@@ -4208,23 +4208,23 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="W17" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="X17" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -4255,19 +4255,19 @@
         <v>0.238</v>
       </c>
       <c r="AS17" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="AT17" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="AU17" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="AV17" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="AW17" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="AX17" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="BA17" t="n">
-        <v>40</v>
+        <v>6.61</v>
       </c>
       <c r="BB17" t="n">
         <v>0.5</v>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="BD17" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="BE17" t="n">
         <v>0</v>
@@ -4426,23 +4426,23 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="W18" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="X18" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -4473,19 +4473,19 @@
         <v>0.238</v>
       </c>
       <c r="AS18" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="AT18" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="AU18" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="AV18" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="AW18" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="AX18" t="n">
         <v>0</v>
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="BA18" t="n">
-        <v>40</v>
+        <v>6.61</v>
       </c>
       <c r="BB18" t="n">
         <v>0.5</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="BD18" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="BE18" t="n">
         <v>0</v>
@@ -4644,35 +4644,35 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>0.6582606778110199</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>0.32913033890551</v>
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="n">
-        <v>4</v>
+        <v>0.7899128133732239</v>
       </c>
       <c r="W19" t="n">
-        <v>10</v>
+        <v>1.97478203343306</v>
       </c>
       <c r="X19" t="n">
-        <v>2</v>
+        <v>0.394956406686612</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>5</v>
+        <v>2.468477541791325</v>
       </c>
       <c r="AA19" t="n">
-        <v>12</v>
+        <v>5.924346100299179</v>
       </c>
       <c r="AB19" t="n">
-        <v>2</v>
+        <v>0.9873910167165298</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -4699,19 +4699,19 @@
         <v>0.238</v>
       </c>
       <c r="AS19" t="n">
-        <v>4</v>
+        <v>0.6582606778110199</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>0.32913033890551</v>
       </c>
       <c r="AU19" t="n">
-        <v>9</v>
+        <v>3.258390355164549</v>
       </c>
       <c r="AV19" t="n">
-        <v>22</v>
+        <v>7.899128133732239</v>
       </c>
       <c r="AW19" t="n">
-        <v>4</v>
+        <v>1.382347423403142</v>
       </c>
       <c r="AX19" t="n">
         <v>0</v>
@@ -4723,16 +4723,16 @@
         <v>0</v>
       </c>
       <c r="BA19" t="n">
-        <v>198</v>
+        <v>25.74</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="BC19" t="n">
         <v>0</v>
       </c>
       <c r="BD19" t="n">
-        <v>4</v>
+        <v>1.382347423403142</v>
       </c>
       <c r="BE19" t="n">
         <v>0</v>
@@ -4870,10 +4870,10 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>2.138122728244602</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1.069061364122301</v>
       </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
@@ -4909,10 +4909,10 @@
         <v>0.238</v>
       </c>
       <c r="AS20" t="n">
-        <v>4</v>
+        <v>2.138122728244602</v>
       </c>
       <c r="AT20" t="n">
-        <v>2</v>
+        <v>1.069061364122301</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5080,10 +5080,10 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>2.138122728244602</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>1.069061364122301</v>
       </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
@@ -5119,10 +5119,10 @@
         <v>0.238</v>
       </c>
       <c r="AS21" t="n">
-        <v>4</v>
+        <v>2.138122728244602</v>
       </c>
       <c r="AT21" t="n">
-        <v>2</v>
+        <v>1.069061364122301</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5290,23 +5290,23 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>1.443001443001443</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>0.7215007215007215</v>
       </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>1.443001443001443</v>
       </c>
       <c r="W22" t="n">
-        <v>10</v>
+        <v>3.607503607503608</v>
       </c>
       <c r="X22" t="n">
-        <v>2</v>
+        <v>0.7215007215007215</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -5337,19 +5337,19 @@
         <v>0.25</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>1.443001443001443</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>0.7215007215007215</v>
       </c>
       <c r="AU22" t="n">
-        <v>4</v>
+        <v>1.443001443001443</v>
       </c>
       <c r="AV22" t="n">
-        <v>10</v>
+        <v>3.607503607503608</v>
       </c>
       <c r="AW22" t="n">
-        <v>2</v>
+        <v>0.7215007215007215</v>
       </c>
       <c r="AX22" t="n">
         <v>0</v>
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="BA22" t="n">
-        <v>40</v>
+        <v>5.21</v>
       </c>
       <c r="BB22" t="n">
         <v>0.5</v>
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="BD22" t="n">
-        <v>2</v>
+        <v>0.7215007215007215</v>
       </c>
       <c r="BE22" t="n">
         <v>0</v>
@@ -5508,23 +5508,23 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>1.397565441001775</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>0.6987827205008875</v>
       </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="n">
-        <v>4</v>
+        <v>1.537321985101953</v>
       </c>
       <c r="W23" t="n">
-        <v>10</v>
+        <v>3.843304962754881</v>
       </c>
       <c r="X23" t="n">
-        <v>2</v>
+        <v>0.7686609925509763</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -5555,19 +5555,19 @@
         <v>0.244</v>
       </c>
       <c r="AS23" t="n">
-        <v>4</v>
+        <v>1.397565441001775</v>
       </c>
       <c r="AT23" t="n">
-        <v>2</v>
+        <v>0.6987827205008875</v>
       </c>
       <c r="AU23" t="n">
-        <v>4</v>
+        <v>1.537321985101953</v>
       </c>
       <c r="AV23" t="n">
-        <v>10</v>
+        <v>3.843304962754881</v>
       </c>
       <c r="AW23" t="n">
-        <v>2</v>
+        <v>0.7686609925509763</v>
       </c>
       <c r="AX23" t="n">
         <v>0</v>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="BA23" t="n">
-        <v>40</v>
+        <v>5.91</v>
       </c>
       <c r="BB23" t="n">
         <v>0.5</v>
@@ -5588,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="BD23" t="n">
-        <v>2</v>
+        <v>0.7686609925509763</v>
       </c>
       <c r="BE23" t="n">
         <v>0</v>
@@ -5724,23 +5724,23 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>0.3675524681148234</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>0.1837762340574117</v>
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="n">
-        <v>4</v>
+        <v>3.675524681148234</v>
       </c>
       <c r="W24" t="n">
-        <v>10</v>
+        <v>9.188811702870584</v>
       </c>
       <c r="X24" t="n">
-        <v>2</v>
+        <v>1.837762340574117</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -5771,19 +5771,19 @@
         <v>0.1</v>
       </c>
       <c r="AS24" t="n">
-        <v>4</v>
+        <v>0.3675524681148234</v>
       </c>
       <c r="AT24" t="n">
-        <v>2</v>
+        <v>0.1837762340574117</v>
       </c>
       <c r="AU24" t="n">
-        <v>4</v>
+        <v>3.675524681148234</v>
       </c>
       <c r="AV24" t="n">
-        <v>10</v>
+        <v>9.188811702870584</v>
       </c>
       <c r="AW24" t="n">
-        <v>2</v>
+        <v>1.837762340574117</v>
       </c>
       <c r="AX24" t="n">
         <v>0</v>
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="BA24" t="n">
-        <v>40</v>
+        <v>33.77</v>
       </c>
       <c r="BB24" t="n">
         <v>0.5</v>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="BD24" t="n">
-        <v>2</v>
+        <v>1.837762340574117</v>
       </c>
       <c r="BE24" t="n">
         <v>0</v>
@@ -5934,23 +5934,23 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>0.8371884511203472</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>0.4185942255601736</v>
       </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="n">
-        <v>4</v>
+        <v>2.70060790683983</v>
       </c>
       <c r="W25" t="n">
-        <v>10</v>
+        <v>6.751519767099574</v>
       </c>
       <c r="X25" t="n">
-        <v>2</v>
+        <v>1.350303953419915</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -5981,19 +5981,19 @@
         <v>0.31</v>
       </c>
       <c r="AS25" t="n">
-        <v>4</v>
+        <v>0.8371884511203472</v>
       </c>
       <c r="AT25" t="n">
-        <v>2</v>
+        <v>0.4185942255601736</v>
       </c>
       <c r="AU25" t="n">
-        <v>4</v>
+        <v>2.70060790683983</v>
       </c>
       <c r="AV25" t="n">
-        <v>10</v>
+        <v>6.751519767099574</v>
       </c>
       <c r="AW25" t="n">
-        <v>2</v>
+        <v>1.350303953419915</v>
       </c>
       <c r="AX25" t="n">
         <v>0</v>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="BA25" t="n">
-        <v>40</v>
+        <v>18.23</v>
       </c>
       <c r="BB25" t="n">
         <v>0.5</v>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="BD25" t="n">
-        <v>2</v>
+        <v>1.350303953419915</v>
       </c>
       <c r="BE25" t="n">
         <v>0</v>
@@ -6144,23 +6144,23 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>1.109915817154176</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>0.5549579085770879</v>
       </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="n">
-        <v>4</v>
+        <v>2.134453494527261</v>
       </c>
       <c r="W26" t="n">
-        <v>10</v>
+        <v>5.336133736318152</v>
       </c>
       <c r="X26" t="n">
-        <v>2</v>
+        <v>1.067226747263631</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -6191,19 +6191,19 @@
         <v>0.52</v>
       </c>
       <c r="AS26" t="n">
-        <v>4</v>
+        <v>1.109915817154176</v>
       </c>
       <c r="AT26" t="n">
-        <v>2</v>
+        <v>0.5549579085770879</v>
       </c>
       <c r="AU26" t="n">
-        <v>4</v>
+        <v>2.134453494527261</v>
       </c>
       <c r="AV26" t="n">
-        <v>10</v>
+        <v>5.336133736318152</v>
       </c>
       <c r="AW26" t="n">
-        <v>2</v>
+        <v>1.067226747263631</v>
       </c>
       <c r="AX26" t="n">
         <v>0</v>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="BA26" t="n">
-        <v>40</v>
+        <v>11.39</v>
       </c>
       <c r="BB26" t="n">
         <v>0.5</v>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="BD26" t="n">
-        <v>2</v>
+        <v>1.067226747263631</v>
       </c>
       <c r="BE26" t="n">
         <v>0</v>
@@ -6354,23 +6354,23 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>1.546767623943963</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>0.7733838119719815</v>
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
-        <v>4</v>
+        <v>1.227593352336479</v>
       </c>
       <c r="W27" t="n">
-        <v>10</v>
+        <v>3.068983380841197</v>
       </c>
       <c r="X27" t="n">
-        <v>2</v>
+        <v>0.6137966761682393</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -6401,19 +6401,19 @@
         <v>1.26</v>
       </c>
       <c r="AS27" t="n">
-        <v>4</v>
+        <v>1.546767623943963</v>
       </c>
       <c r="AT27" t="n">
-        <v>2</v>
+        <v>0.7733838119719815</v>
       </c>
       <c r="AU27" t="n">
-        <v>4</v>
+        <v>1.227593352336479</v>
       </c>
       <c r="AV27" t="n">
-        <v>10</v>
+        <v>3.068983380841197</v>
       </c>
       <c r="AW27" t="n">
-        <v>2</v>
+        <v>0.6137966761682393</v>
       </c>
       <c r="AX27" t="n">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="BA27" t="n">
-        <v>40</v>
+        <v>3.77</v>
       </c>
       <c r="BB27" t="n">
         <v>0.5</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="BD27" t="n">
-        <v>2</v>
+        <v>0.6137966761682393</v>
       </c>
       <c r="BE27" t="n">
         <v>0</v>
@@ -6566,38 +6566,38 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>0.9861638497665327</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>0.4930819248832664</v>
       </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="n">
-        <v>4</v>
+        <v>0.9047374768500299</v>
       </c>
       <c r="W28" t="n">
-        <v>10</v>
+        <v>2.261843692125075</v>
       </c>
       <c r="X28" t="n">
-        <v>2</v>
+        <v>0.452368738425015</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>4</v>
+        <v>0.9047374768500299</v>
       </c>
       <c r="AA28" t="n">
-        <v>5</v>
+        <v>1.130921846062537</v>
       </c>
       <c r="AB28" t="n">
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>5</v>
+        <v>1.130921846062537</v>
       </c>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
@@ -6621,22 +6621,22 @@
         <v>0.545</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>0.9861638497665327</v>
       </c>
       <c r="AT28" t="n">
-        <v>2</v>
+        <v>0.4930819248832664</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>1.80947495370006</v>
       </c>
       <c r="AV28" t="n">
-        <v>15</v>
+        <v>3.392765538187613</v>
       </c>
       <c r="AW28" t="n">
-        <v>2</v>
+        <v>0.452368738425015</v>
       </c>
       <c r="AX28" t="n">
-        <v>5</v>
+        <v>1.130921846062537</v>
       </c>
       <c r="AY28" t="n">
         <v>0.62</v>
@@ -6645,7 +6645,7 @@
         <v>2.5</v>
       </c>
       <c r="BA28" t="n">
-        <v>120</v>
+        <v>6.14</v>
       </c>
       <c r="BB28" t="n">
         <v>0.25</v>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="BD28" t="n">
-        <v>2</v>
+        <v>0.452368738425015</v>
       </c>
       <c r="BE28" t="n">
         <v>0</v>
@@ -6792,38 +6792,38 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>0.7069812317276543</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>0.3534906158638271</v>
       </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="n">
-        <v>4</v>
+        <v>0.6931188546349552</v>
       </c>
       <c r="W29" t="n">
-        <v>10</v>
+        <v>1.732797136587388</v>
       </c>
       <c r="X29" t="n">
-        <v>2</v>
+        <v>0.3465594273174776</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>4</v>
+        <v>1.38623770926991</v>
       </c>
       <c r="AA29" t="n">
-        <v>5</v>
+        <v>1.732797136587388</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>5</v>
+        <v>1.732797136587388</v>
       </c>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
@@ -6847,40 +6847,40 @@
         <v>0.34</v>
       </c>
       <c r="AS29" t="n">
-        <v>4</v>
+        <v>0.7069812317276543</v>
       </c>
       <c r="AT29" t="n">
-        <v>2</v>
+        <v>0.3534906158638271</v>
       </c>
       <c r="AU29" t="n">
-        <v>8</v>
+        <v>2.079356563904866</v>
       </c>
       <c r="AV29" t="n">
-        <v>15</v>
+        <v>3.465594273174776</v>
       </c>
       <c r="AW29" t="n">
-        <v>2</v>
+        <v>0.3465594273174776</v>
       </c>
       <c r="AX29" t="n">
+        <v>1.732797136587388</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AZ29" t="n">
         <v>5</v>
       </c>
-      <c r="AY29" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>2.5</v>
-      </c>
       <c r="BA29" t="n">
-        <v>120</v>
+        <v>7.21</v>
       </c>
       <c r="BB29" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="BC29" t="n">
         <v>0</v>
       </c>
       <c r="BD29" t="n">
-        <v>2</v>
+        <v>0.3465594273174776</v>
       </c>
       <c r="BE29" t="n">
         <v>0</v>
@@ -7018,38 +7018,38 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>0.546190433195894</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>0.273095216597947</v>
       </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="n">
-        <v>4</v>
+        <v>0.5573371767305041</v>
       </c>
       <c r="W30" t="n">
-        <v>10</v>
+        <v>1.39334294182626</v>
       </c>
       <c r="X30" t="n">
-        <v>2</v>
+        <v>0.278668588365252</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>4</v>
+        <v>1.672011530191512</v>
       </c>
       <c r="AA30" t="n">
-        <v>5</v>
+        <v>2.09001441273939</v>
       </c>
       <c r="AB30" t="n">
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>5</v>
+        <v>2.09001441273939</v>
       </c>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
@@ -7073,40 +7073,40 @@
         <v>0.245</v>
       </c>
       <c r="AS30" t="n">
-        <v>4</v>
+        <v>0.546190433195894</v>
       </c>
       <c r="AT30" t="n">
-        <v>2</v>
+        <v>0.273095216597947</v>
       </c>
       <c r="AU30" t="n">
-        <v>8</v>
+        <v>2.229348706922016</v>
       </c>
       <c r="AV30" t="n">
-        <v>15</v>
+        <v>3.48335735456565</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>0.278668588365252</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>2.09001441273939</v>
       </c>
       <c r="AY30" t="n">
-        <v>0.62</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AZ30" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="BA30" t="n">
-        <v>120</v>
+        <v>7.77</v>
       </c>
       <c r="BB30" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="BC30" t="n">
         <v>0</v>
       </c>
       <c r="BD30" t="n">
-        <v>2</v>
+        <v>0.278668588365252</v>
       </c>
       <c r="BE30" t="n">
         <v>0</v>
@@ -7244,38 +7244,38 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>1.136762600711633</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>0.5683813003558167</v>
       </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="n">
-        <v>4</v>
+        <v>1.005984602399676</v>
       </c>
       <c r="W31" t="n">
-        <v>10</v>
+        <v>2.514961505999189</v>
       </c>
       <c r="X31" t="n">
-        <v>2</v>
+        <v>0.5029923011998378</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>6</v>
+        <v>1.508976903599514</v>
       </c>
       <c r="AA31" t="n">
-        <v>5</v>
+        <v>1.257480752999595</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>1</v>
+        <v>0.2514961505999189</v>
       </c>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
@@ -7299,22 +7299,22 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="AS31" t="n">
-        <v>4</v>
+        <v>1.136762600711633</v>
       </c>
       <c r="AT31" t="n">
-        <v>2</v>
+        <v>0.5683813003558167</v>
       </c>
       <c r="AU31" t="n">
-        <v>10</v>
+        <v>2.514961505999189</v>
       </c>
       <c r="AV31" t="n">
-        <v>15</v>
+        <v>3.772442258998784</v>
       </c>
       <c r="AW31" t="n">
-        <v>2</v>
+        <v>0.5029923011998378</v>
       </c>
       <c r="AX31" t="n">
-        <v>1</v>
+        <v>0.2514961505999189</v>
       </c>
       <c r="AY31" t="n">
         <v>0.1</v>
@@ -7323,7 +7323,7 @@
         <v>0.5</v>
       </c>
       <c r="BA31" t="n">
-        <v>150</v>
+        <v>9.49</v>
       </c>
       <c r="BB31" t="n">
         <v>0.2</v>
@@ -7332,7 +7332,7 @@
         <v>0</v>
       </c>
       <c r="BD31" t="n">
-        <v>2</v>
+        <v>0.5029923011998378</v>
       </c>
       <c r="BE31" t="n">
         <v>0</v>
@@ -7470,38 +7470,38 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>0.8870547213280285</v>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>0.4435273606640143</v>
       </c>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="n">
-        <v>4</v>
+        <v>0.8290231040448864</v>
       </c>
       <c r="W32" t="n">
-        <v>10</v>
+        <v>2.072557760112216</v>
       </c>
       <c r="X32" t="n">
-        <v>2</v>
+        <v>0.4145115520224432</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>6</v>
+        <v>2.487069312134659</v>
       </c>
       <c r="AA32" t="n">
-        <v>5</v>
+        <v>2.072557760112216</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>1</v>
+        <v>0.4145115520224432</v>
       </c>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
@@ -7525,40 +7525,40 @@
         <v>0.357</v>
       </c>
       <c r="AS32" t="n">
-        <v>4</v>
+        <v>0.8870547213280285</v>
       </c>
       <c r="AT32" t="n">
-        <v>2</v>
+        <v>0.4435273606640143</v>
       </c>
       <c r="AU32" t="n">
-        <v>10</v>
+        <v>3.316092416179546</v>
       </c>
       <c r="AV32" t="n">
-        <v>15</v>
+        <v>4.145115520224432</v>
       </c>
       <c r="AW32" t="n">
-        <v>2</v>
+        <v>0.4145115520224432</v>
       </c>
       <c r="AX32" t="n">
+        <v>0.4145115520224432</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AZ32" t="n">
         <v>1</v>
       </c>
-      <c r="AY32" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>0.5</v>
-      </c>
       <c r="BA32" t="n">
-        <v>150</v>
+        <v>13.75</v>
       </c>
       <c r="BB32" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="BC32" t="n">
         <v>0</v>
       </c>
       <c r="BD32" t="n">
-        <v>2</v>
+        <v>0.4145115520224432</v>
       </c>
       <c r="BE32" t="n">
         <v>0</v>
@@ -7696,38 +7696,38 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>0.7213991501497778</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>0.3606995750748889</v>
       </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="n">
-        <v>4</v>
+        <v>0.70038752441726</v>
       </c>
       <c r="W33" t="n">
-        <v>10</v>
+        <v>1.75096881104315</v>
       </c>
       <c r="X33" t="n">
-        <v>2</v>
+        <v>0.35019376220863</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>6</v>
+        <v>3.15174385987767</v>
       </c>
       <c r="AA33" t="n">
-        <v>5</v>
+        <v>2.626453216564725</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>1</v>
+        <v>0.5252906433129451</v>
       </c>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
@@ -7751,40 +7751,40 @@
         <v>0.258</v>
       </c>
       <c r="AS33" t="n">
-        <v>4</v>
+        <v>0.7213991501497778</v>
       </c>
       <c r="AT33" t="n">
-        <v>2</v>
+        <v>0.3606995750748889</v>
       </c>
       <c r="AU33" t="n">
-        <v>10</v>
+        <v>3.85213138429493</v>
       </c>
       <c r="AV33" t="n">
-        <v>15</v>
+        <v>4.377422027607875</v>
       </c>
       <c r="AW33" t="n">
-        <v>2</v>
+        <v>0.35019376220863</v>
       </c>
       <c r="AX33" t="n">
-        <v>1</v>
+        <v>0.5252906433129451</v>
       </c>
       <c r="AY33" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="BA33" t="n">
-        <v>150</v>
+        <v>16.86</v>
       </c>
       <c r="BB33" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="BC33" t="n">
         <v>0</v>
       </c>
       <c r="BD33" t="n">
-        <v>2</v>
+        <v>0.35019376220863</v>
       </c>
       <c r="BE33" t="n">
         <v>0</v>
@@ -7922,38 +7922,38 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>0.8001640724777741</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>0.4000820362388871</v>
       </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="n">
-        <v>4</v>
+        <v>0.7768583227939554</v>
       </c>
       <c r="W34" t="n">
-        <v>10</v>
+        <v>1.942145806984888</v>
       </c>
       <c r="X34" t="n">
-        <v>2</v>
+        <v>0.3884291613969777</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>5</v>
+        <v>0.9710729034924442</v>
       </c>
       <c r="AA34" t="n">
-        <v>4</v>
+        <v>0.7768583227939554</v>
       </c>
       <c r="AB34" t="n">
-        <v>1</v>
+        <v>0.1942145806984888</v>
       </c>
       <c r="AC34" t="n">
-        <v>8</v>
+        <v>1.553716645587911</v>
       </c>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
@@ -7977,22 +7977,22 @@
         <v>0.515</v>
       </c>
       <c r="AS34" t="n">
-        <v>4</v>
+        <v>0.8001640724777741</v>
       </c>
       <c r="AT34" t="n">
-        <v>2</v>
+        <v>0.4000820362388871</v>
       </c>
       <c r="AU34" t="n">
-        <v>9</v>
+        <v>1.7479312262864</v>
       </c>
       <c r="AV34" t="n">
-        <v>14</v>
+        <v>2.719004129778844</v>
       </c>
       <c r="AW34" t="n">
-        <v>3</v>
+        <v>0.5826437420954665</v>
       </c>
       <c r="AX34" t="n">
-        <v>8</v>
+        <v>1.553716645587911</v>
       </c>
       <c r="AY34" t="n">
         <v>0.89</v>
@@ -8001,7 +8001,7 @@
         <v>2.67</v>
       </c>
       <c r="BA34" t="n">
-        <v>126</v>
+        <v>4.75</v>
       </c>
       <c r="BB34" t="n">
         <v>0.33</v>
@@ -8010,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="BD34" t="n">
-        <v>3</v>
+        <v>0.5826437420954665</v>
       </c>
       <c r="BE34" t="n">
         <v>0</v>
@@ -8148,38 +8148,38 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>0.5108006883176588</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>0.2554003441588294</v>
       </c>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="n">
-        <v>4</v>
+        <v>0.5492480519544718</v>
       </c>
       <c r="W35" t="n">
-        <v>10</v>
+        <v>1.373120129886179</v>
       </c>
       <c r="X35" t="n">
-        <v>2</v>
+        <v>0.2746240259772359</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>5</v>
+        <v>1.373120129886179</v>
       </c>
       <c r="AA35" t="n">
-        <v>4</v>
+        <v>1.098496103908944</v>
       </c>
       <c r="AB35" t="n">
-        <v>1</v>
+        <v>0.2746240259772359</v>
       </c>
       <c r="AC35" t="n">
-        <v>8</v>
+        <v>2.196992207817887</v>
       </c>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
@@ -8203,40 +8203,40 @@
         <v>0.31</v>
       </c>
       <c r="AS35" t="n">
+        <v>0.5108006883176588</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.2554003441588294</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>1.922368181840651</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>2.471616233795123</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0.5492480519544718</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>2.196992207817887</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AZ35" t="n">
         <v>4</v>
       </c>
-      <c r="AT35" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>14</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>2.67</v>
-      </c>
       <c r="BA35" t="n">
-        <v>126</v>
+        <v>4.75</v>
       </c>
       <c r="BB35" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="BC35" t="n">
         <v>0</v>
       </c>
       <c r="BD35" t="n">
-        <v>3</v>
+        <v>0.5492480519544718</v>
       </c>
       <c r="BE35" t="n">
         <v>0</v>
@@ -8374,38 +8374,38 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>0.3666532648576754</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>0.1833266324288377</v>
       </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="n">
-        <v>4</v>
+        <v>0.4214405343191671</v>
       </c>
       <c r="W36" t="n">
-        <v>10</v>
+        <v>1.053601335797918</v>
       </c>
       <c r="X36" t="n">
-        <v>2</v>
+        <v>0.2107202671595835</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>5</v>
+        <v>1.580402003696876</v>
       </c>
       <c r="AA36" t="n">
-        <v>4</v>
+        <v>1.264321602957501</v>
       </c>
       <c r="AB36" t="n">
-        <v>1</v>
+        <v>0.3160804007393753</v>
       </c>
       <c r="AC36" t="n">
-        <v>8</v>
+        <v>2.528643205915002</v>
       </c>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
@@ -8429,40 +8429,40 @@
         <v>0.218</v>
       </c>
       <c r="AS36" t="n">
-        <v>4</v>
+        <v>0.3666532648576754</v>
       </c>
       <c r="AT36" t="n">
-        <v>2</v>
+        <v>0.1833266324288377</v>
       </c>
       <c r="AU36" t="n">
-        <v>9</v>
+        <v>2.001842538016044</v>
       </c>
       <c r="AV36" t="n">
-        <v>14</v>
+        <v>2.317922938755419</v>
       </c>
       <c r="AW36" t="n">
-        <v>3</v>
+        <v>0.5268006678989587</v>
       </c>
       <c r="AX36" t="n">
-        <v>8</v>
+        <v>2.528643205915002</v>
       </c>
       <c r="AY36" t="n">
-        <v>0.89</v>
+        <v>1.26</v>
       </c>
       <c r="AZ36" t="n">
-        <v>2.67</v>
+        <v>4.8</v>
       </c>
       <c r="BA36" t="n">
-        <v>126</v>
+        <v>4.64</v>
       </c>
       <c r="BB36" t="n">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="BC36" t="n">
         <v>0</v>
       </c>
       <c r="BD36" t="n">
-        <v>3</v>
+        <v>0.5268006678989587</v>
       </c>
       <c r="BE36" t="n">
         <v>0</v>
@@ -8598,10 +8598,10 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>2.138122728244602</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>1.069061364122301</v>
       </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
@@ -8637,10 +8637,10 @@
         <v>0.1</v>
       </c>
       <c r="AS37" t="n">
-        <v>4</v>
+        <v>2.138122728244602</v>
       </c>
       <c r="AT37" t="n">
-        <v>2</v>
+        <v>1.069061364122301</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
@@ -8800,10 +8800,10 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>2.138122728244601</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>1.069061364122301</v>
       </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
@@ -8839,10 +8839,10 @@
         <v>0.31</v>
       </c>
       <c r="AS38" t="n">
-        <v>4</v>
+        <v>2.138122728244601</v>
       </c>
       <c r="AT38" t="n">
-        <v>2</v>
+        <v>1.069061364122301</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>2.138122728244601</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>1.069061364122301</v>
       </c>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
@@ -9041,10 +9041,10 @@
         <v>0.52</v>
       </c>
       <c r="AS39" t="n">
-        <v>4</v>
+        <v>2.138122728244601</v>
       </c>
       <c r="AT39" t="n">
-        <v>2</v>
+        <v>1.069061364122301</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -9204,10 +9204,10 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>2.138122728244602</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>1.069061364122301</v>
       </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
@@ -9243,10 +9243,10 @@
         <v>0.97</v>
       </c>
       <c r="AS40" t="n">
-        <v>4</v>
+        <v>2.138122728244602</v>
       </c>
       <c r="AT40" t="n">
-        <v>2</v>
+        <v>1.069061364122301</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -9408,26 +9408,26 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>4</v>
+        <v>1.061215826809577</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>0.5306079134047886</v>
       </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="n">
-        <v>4</v>
+        <v>1.36053311129433</v>
       </c>
       <c r="W41" t="n">
-        <v>5</v>
+        <v>1.700666389117912</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>5</v>
+        <v>1.700666389117912</v>
       </c>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
@@ -9455,22 +9455,22 @@
         <v>0.39</v>
       </c>
       <c r="AS41" t="n">
-        <v>4</v>
+        <v>1.061215826809577</v>
       </c>
       <c r="AT41" t="n">
-        <v>2</v>
+        <v>0.5306079134047886</v>
       </c>
       <c r="AU41" t="n">
-        <v>4</v>
+        <v>1.36053311129433</v>
       </c>
       <c r="AV41" t="n">
-        <v>5</v>
+        <v>1.700666389117912</v>
       </c>
       <c r="AW41" t="n">
         <v>0</v>
       </c>
       <c r="AX41" t="n">
-        <v>5</v>
+        <v>1.700666389117912</v>
       </c>
       <c r="AY41" t="n">
         <v>1.25</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="BA41" t="n">
-        <v>20</v>
+        <v>2.31</v>
       </c>
       <c r="BB41" t="n">
         <v>0</v>
@@ -9626,26 +9626,26 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>0.6684343040484839</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>0.334217152024242</v>
       </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="n">
-        <v>4</v>
+        <v>1.856761955690233</v>
       </c>
       <c r="W42" t="n">
-        <v>5</v>
+        <v>2.320952444612791</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>5</v>
+        <v>2.320952444612791</v>
       </c>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
@@ -9673,22 +9673,22 @@
         <v>0.24</v>
       </c>
       <c r="AS42" t="n">
-        <v>4</v>
+        <v>0.6684343040484839</v>
       </c>
       <c r="AT42" t="n">
-        <v>2</v>
+        <v>0.334217152024242</v>
       </c>
       <c r="AU42" t="n">
-        <v>4</v>
+        <v>1.856761955690233</v>
       </c>
       <c r="AV42" t="n">
-        <v>5</v>
+        <v>2.320952444612791</v>
       </c>
       <c r="AW42" t="n">
         <v>0</v>
       </c>
       <c r="AX42" t="n">
-        <v>5</v>
+        <v>2.320952444612791</v>
       </c>
       <c r="AY42" t="n">
         <v>1.25</v>
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="BA42" t="n">
-        <v>20</v>
+        <v>4.31</v>
       </c>
       <c r="BB42" t="n">
         <v>0</v>
@@ -9844,26 +9844,26 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>0.4650238641792119</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>0.2325119320896059</v>
       </c>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="n">
-        <v>4</v>
+        <v>2.113744837178236</v>
       </c>
       <c r="W43" t="n">
-        <v>5</v>
+        <v>2.642181046472794</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>5</v>
+        <v>2.642181046472794</v>
       </c>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
@@ -9891,22 +9891,22 @@
         <v>0.165</v>
       </c>
       <c r="AS43" t="n">
-        <v>4</v>
+        <v>0.4650238641792119</v>
       </c>
       <c r="AT43" t="n">
-        <v>2</v>
+        <v>0.2325119320896059</v>
       </c>
       <c r="AU43" t="n">
-        <v>4</v>
+        <v>2.113744837178236</v>
       </c>
       <c r="AV43" t="n">
-        <v>5</v>
+        <v>2.642181046472794</v>
       </c>
       <c r="AW43" t="n">
         <v>0</v>
       </c>
       <c r="AX43" t="n">
-        <v>5</v>
+        <v>2.642181046472794</v>
       </c>
       <c r="AY43" t="n">
         <v>1.25</v>
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="BA43" t="n">
-        <v>20</v>
+        <v>5.58</v>
       </c>
       <c r="BB43" t="n">
         <v>0</v>
@@ -10062,26 +10062,26 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>1.275805688078939</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>0.6379028440394694</v>
       </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="n">
-        <v>6</v>
+        <v>2.518037542261063</v>
       </c>
       <c r="W44" t="n">
-        <v>5</v>
+        <v>2.098364618550886</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>1</v>
+        <v>0.4196729237101772</v>
       </c>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
@@ -10109,22 +10109,22 @@
         <v>0.38</v>
       </c>
       <c r="AS44" t="n">
-        <v>4</v>
+        <v>1.275805688078939</v>
       </c>
       <c r="AT44" t="n">
-        <v>2</v>
+        <v>0.6379028440394694</v>
       </c>
       <c r="AU44" t="n">
-        <v>6</v>
+        <v>2.518037542261063</v>
       </c>
       <c r="AV44" t="n">
-        <v>5</v>
+        <v>2.098364618550886</v>
       </c>
       <c r="AW44" t="n">
         <v>0</v>
       </c>
       <c r="AX44" t="n">
-        <v>1</v>
+        <v>0.4196729237101772</v>
       </c>
       <c r="AY44" t="n">
         <v>0.17</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="BA44" t="n">
-        <v>30</v>
+        <v>5.28</v>
       </c>
       <c r="BB44" t="n">
         <v>0</v>
@@ -10280,26 +10280,26 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>0.8810098330486367</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>0.4405049165243183</v>
       </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="n">
-        <v>6</v>
+        <v>3.670874304369319</v>
       </c>
       <c r="W45" t="n">
-        <v>5</v>
+        <v>3.059061920307766</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>1</v>
+        <v>0.6118123840615532</v>
       </c>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
@@ -10327,22 +10327,22 @@
         <v>0.24</v>
       </c>
       <c r="AS45" t="n">
-        <v>4</v>
+        <v>0.8810098330486367</v>
       </c>
       <c r="AT45" t="n">
-        <v>2</v>
+        <v>0.4405049165243183</v>
       </c>
       <c r="AU45" t="n">
-        <v>6</v>
+        <v>3.670874304369319</v>
       </c>
       <c r="AV45" t="n">
-        <v>5</v>
+        <v>3.059061920307766</v>
       </c>
       <c r="AW45" t="n">
         <v>0</v>
       </c>
       <c r="AX45" t="n">
-        <v>1</v>
+        <v>0.6118123840615532</v>
       </c>
       <c r="AY45" t="n">
         <v>0.17</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="BA45" t="n">
-        <v>30</v>
+        <v>11.23</v>
       </c>
       <c r="BB45" t="n">
         <v>0</v>
@@ -10498,26 +10498,26 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
-        <v>4</v>
+        <v>0.647900753208801</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>0.3239503766044005</v>
       </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="n">
-        <v>6</v>
+        <v>4.351572223044187</v>
       </c>
       <c r="W46" t="n">
-        <v>5</v>
+        <v>3.626310185870155</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>1</v>
+        <v>0.725262037174031</v>
       </c>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
@@ -10545,22 +10545,22 @@
         <v>0.168</v>
       </c>
       <c r="AS46" t="n">
-        <v>4</v>
+        <v>0.647900753208801</v>
       </c>
       <c r="AT46" t="n">
-        <v>2</v>
+        <v>0.3239503766044005</v>
       </c>
       <c r="AU46" t="n">
-        <v>6</v>
+        <v>4.351572223044187</v>
       </c>
       <c r="AV46" t="n">
-        <v>5</v>
+        <v>3.626310185870155</v>
       </c>
       <c r="AW46" t="n">
         <v>0</v>
       </c>
       <c r="AX46" t="n">
-        <v>1</v>
+        <v>0.725262037174031</v>
       </c>
       <c r="AY46" t="n">
         <v>0.17</v>
@@ -10569,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="BA46" t="n">
-        <v>30</v>
+        <v>15.78</v>
       </c>
       <c r="BB46" t="n">
         <v>0</v>
@@ -10716,26 +10716,26 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>0.8445928332648623</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>0.4222964166324312</v>
       </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="n">
-        <v>5</v>
+        <v>1.303384001951948</v>
       </c>
       <c r="W47" t="n">
-        <v>4</v>
+        <v>1.042707201561558</v>
       </c>
       <c r="X47" t="n">
-        <v>1</v>
+        <v>0.2606768003903896</v>
       </c>
       <c r="Y47" t="n">
-        <v>8</v>
+        <v>2.085414403123117</v>
       </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
@@ -10763,22 +10763,22 @@
         <v>0.405</v>
       </c>
       <c r="AS47" t="n">
-        <v>4</v>
+        <v>0.8445928332648623</v>
       </c>
       <c r="AT47" t="n">
-        <v>2</v>
+        <v>0.4222964166324312</v>
       </c>
       <c r="AU47" t="n">
-        <v>5</v>
+        <v>1.303384001951948</v>
       </c>
       <c r="AV47" t="n">
-        <v>4</v>
+        <v>1.042707201561558</v>
       </c>
       <c r="AW47" t="n">
-        <v>1</v>
+        <v>0.2606768003903896</v>
       </c>
       <c r="AX47" t="n">
-        <v>8</v>
+        <v>2.085414403123117</v>
       </c>
       <c r="AY47" t="n">
         <v>1.6</v>
@@ -10787,7 +10787,7 @@
         <v>8</v>
       </c>
       <c r="BA47" t="n">
-        <v>20</v>
+        <v>1.36</v>
       </c>
       <c r="BB47" t="n">
         <v>0.2</v>
@@ -10796,7 +10796,7 @@
         <v>0</v>
       </c>
       <c r="BD47" t="n">
-        <v>1</v>
+        <v>0.2606768003903896</v>
       </c>
       <c r="BE47" t="n">
         <v>0</v>
@@ -10934,26 +10934,26 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="n">
-        <v>4</v>
+        <v>0.3994396632373253</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>0.1997198316186627</v>
       </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="n">
-        <v>5</v>
+        <v>1.751928347532129</v>
       </c>
       <c r="W48" t="n">
-        <v>4</v>
+        <v>1.401542678025703</v>
       </c>
       <c r="X48" t="n">
-        <v>1</v>
+        <v>0.3503856695064257</v>
       </c>
       <c r="Y48" t="n">
-        <v>8</v>
+        <v>2.803085356051406</v>
       </c>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
@@ -10981,22 +10981,22 @@
         <v>0.19</v>
       </c>
       <c r="AS48" t="n">
-        <v>4</v>
+        <v>0.3994396632373253</v>
       </c>
       <c r="AT48" t="n">
-        <v>2</v>
+        <v>0.1997198316186627</v>
       </c>
       <c r="AU48" t="n">
-        <v>5</v>
+        <v>1.751928347532129</v>
       </c>
       <c r="AV48" t="n">
-        <v>4</v>
+        <v>1.401542678025703</v>
       </c>
       <c r="AW48" t="n">
-        <v>1</v>
+        <v>0.3503856695064257</v>
       </c>
       <c r="AX48" t="n">
-        <v>8</v>
+        <v>2.803085356051406</v>
       </c>
       <c r="AY48" t="n">
         <v>1.6</v>
@@ -11005,7 +11005,7 @@
         <v>8</v>
       </c>
       <c r="BA48" t="n">
-        <v>20</v>
+        <v>2.46</v>
       </c>
       <c r="BB48" t="n">
         <v>0.2</v>
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="BD48" t="n">
-        <v>1</v>
+        <v>0.3503856695064257</v>
       </c>
       <c r="BE48" t="n">
         <v>0</v>
@@ -11152,26 +11152,26 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>0.2487577343348625</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>0.1243788671674312</v>
       </c>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="n">
-        <v>5</v>
+        <v>1.90375817093007</v>
       </c>
       <c r="W49" t="n">
-        <v>4</v>
+        <v>1.523006536744056</v>
       </c>
       <c r="X49" t="n">
-        <v>1</v>
+        <v>0.380751634186014</v>
       </c>
       <c r="Y49" t="n">
-        <v>8</v>
+        <v>3.046013073488112</v>
       </c>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
@@ -11199,22 +11199,22 @@
         <v>0.122</v>
       </c>
       <c r="AS49" t="n">
-        <v>4</v>
+        <v>0.2487577343348625</v>
       </c>
       <c r="AT49" t="n">
-        <v>2</v>
+        <v>0.1243788671674312</v>
       </c>
       <c r="AU49" t="n">
-        <v>5</v>
+        <v>1.90375817093007</v>
       </c>
       <c r="AV49" t="n">
-        <v>4</v>
+        <v>1.523006536744056</v>
       </c>
       <c r="AW49" t="n">
-        <v>1</v>
+        <v>0.380751634186014</v>
       </c>
       <c r="AX49" t="n">
-        <v>8</v>
+        <v>3.046013073488112</v>
       </c>
       <c r="AY49" t="n">
         <v>1.6</v>
@@ -11223,7 +11223,7 @@
         <v>8</v>
       </c>
       <c r="BA49" t="n">
-        <v>20</v>
+        <v>2.9</v>
       </c>
       <c r="BB49" t="n">
         <v>0.2</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="BD49" t="n">
-        <v>1</v>
+        <v>0.380751634186014</v>
       </c>
       <c r="BE49" t="n">
         <v>0</v>
@@ -11368,23 +11368,23 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>0.2779650181024718</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>0.1389825090512359</v>
       </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="n">
-        <v>6</v>
+        <v>5.211844089421347</v>
       </c>
       <c r="W50" t="n">
-        <v>12</v>
+        <v>10.42368817884269</v>
       </c>
       <c r="X50" t="n">
-        <v>1</v>
+        <v>0.8686406815702244</v>
       </c>
       <c r="Y50" t="n">
         <v>0</v>
@@ -11415,19 +11415,19 @@
         <v>0.08</v>
       </c>
       <c r="AS50" t="n">
-        <v>4</v>
+        <v>0.2779650181024718</v>
       </c>
       <c r="AT50" t="n">
-        <v>2</v>
+        <v>0.1389825090512359</v>
       </c>
       <c r="AU50" t="n">
-        <v>6</v>
+        <v>5.211844089421347</v>
       </c>
       <c r="AV50" t="n">
-        <v>12</v>
+        <v>10.42368817884269</v>
       </c>
       <c r="AW50" t="n">
-        <v>1</v>
+        <v>0.8686406815702244</v>
       </c>
       <c r="AX50" t="n">
         <v>0</v>
@@ -11439,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="BA50" t="n">
-        <v>72</v>
+        <v>54.33</v>
       </c>
       <c r="BB50" t="n">
         <v>0.17</v>
@@ -11448,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="BD50" t="n">
-        <v>1</v>
+        <v>0.8686406815702244</v>
       </c>
       <c r="BE50" t="n">
         <v>1</v>
@@ -11578,23 +11578,23 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>0.6618170186246338</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>0.3309085093123169</v>
       </c>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="n">
-        <v>6</v>
+        <v>4.136356366403962</v>
       </c>
       <c r="W51" t="n">
-        <v>12</v>
+        <v>8.272712732807923</v>
       </c>
       <c r="X51" t="n">
-        <v>1</v>
+        <v>0.6893927277339936</v>
       </c>
       <c r="Y51" t="n">
         <v>0</v>
@@ -11625,19 +11625,19 @@
         <v>0.24</v>
       </c>
       <c r="AS51" t="n">
-        <v>4</v>
+        <v>0.6618170186246338</v>
       </c>
       <c r="AT51" t="n">
-        <v>2</v>
+        <v>0.3309085093123169</v>
       </c>
       <c r="AU51" t="n">
-        <v>6</v>
+        <v>4.136356366403962</v>
       </c>
       <c r="AV51" t="n">
-        <v>12</v>
+        <v>8.272712732807923</v>
       </c>
       <c r="AW51" t="n">
-        <v>1</v>
+        <v>0.6893927277339936</v>
       </c>
       <c r="AX51" t="n">
         <v>0</v>
@@ -11649,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="BA51" t="n">
-        <v>72</v>
+        <v>34.22</v>
       </c>
       <c r="BB51" t="n">
         <v>0.17</v>
@@ -11658,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="BD51" t="n">
-        <v>1</v>
+        <v>0.6893927277339936</v>
       </c>
       <c r="BE51" t="n">
         <v>1</v>
@@ -11788,23 +11788,23 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>0.9272934114672271</v>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>0.4636467057336136</v>
       </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="n">
-        <v>6</v>
+        <v>3.392536871221563</v>
       </c>
       <c r="W52" t="n">
-        <v>12</v>
+        <v>6.785073742443125</v>
       </c>
       <c r="X52" t="n">
-        <v>1</v>
+        <v>0.5654228118702604</v>
       </c>
       <c r="Y52" t="n">
         <v>0</v>
@@ -11835,19 +11835,19 @@
         <v>0.41</v>
       </c>
       <c r="AS52" t="n">
-        <v>4</v>
+        <v>0.9272934114672271</v>
       </c>
       <c r="AT52" t="n">
-        <v>2</v>
+        <v>0.4636467057336136</v>
       </c>
       <c r="AU52" t="n">
-        <v>6</v>
+        <v>3.392536871221563</v>
       </c>
       <c r="AV52" t="n">
-        <v>12</v>
+        <v>6.785073742443125</v>
       </c>
       <c r="AW52" t="n">
-        <v>1</v>
+        <v>0.5654228118702604</v>
       </c>
       <c r="AX52" t="n">
         <v>0</v>
@@ -11859,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="BA52" t="n">
-        <v>72</v>
+        <v>23.02</v>
       </c>
       <c r="BB52" t="n">
         <v>0.17</v>
@@ -11868,7 +11868,7 @@
         <v>0</v>
       </c>
       <c r="BD52" t="n">
-        <v>1</v>
+        <v>0.5654228118702604</v>
       </c>
       <c r="BE52" t="n">
         <v>1</v>
@@ -11998,23 +11998,23 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="n">
-        <v>4</v>
+        <v>1.340642316629923</v>
       </c>
       <c r="Q53" t="n">
-        <v>2</v>
+        <v>0.6703211583149615</v>
       </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="n">
-        <v>6</v>
+        <v>2.234403861049872</v>
       </c>
       <c r="W53" t="n">
-        <v>12</v>
+        <v>4.468807722099744</v>
       </c>
       <c r="X53" t="n">
-        <v>1</v>
+        <v>0.372400643508312</v>
       </c>
       <c r="Y53" t="n">
         <v>0</v>
@@ -12045,19 +12045,19 @@
         <v>0.9</v>
       </c>
       <c r="AS53" t="n">
-        <v>4</v>
+        <v>1.340642316629923</v>
       </c>
       <c r="AT53" t="n">
-        <v>2</v>
+        <v>0.6703211583149615</v>
       </c>
       <c r="AU53" t="n">
-        <v>6</v>
+        <v>2.234403861049872</v>
       </c>
       <c r="AV53" t="n">
-        <v>12</v>
+        <v>4.468807722099744</v>
       </c>
       <c r="AW53" t="n">
-        <v>1</v>
+        <v>0.372400643508312</v>
       </c>
       <c r="AX53" t="n">
         <v>0</v>
@@ -12069,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="BA53" t="n">
-        <v>72</v>
+        <v>9.99</v>
       </c>
       <c r="BB53" t="n">
         <v>0.17</v>
@@ -12078,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="BD53" t="n">
-        <v>1</v>
+        <v>0.372400643508312</v>
       </c>
       <c r="BE53" t="n">
         <v>1</v>
@@ -12210,38 +12210,38 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>0.7102333869954115</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>0.3551166934977057</v>
       </c>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="n">
-        <v>6</v>
+        <v>1.614166788625935</v>
       </c>
       <c r="W54" t="n">
-        <v>12</v>
+        <v>3.22833357725187</v>
       </c>
       <c r="X54" t="n">
-        <v>1</v>
+        <v>0.2690277981043225</v>
       </c>
       <c r="Y54" t="n">
         <v>0</v>
       </c>
       <c r="Z54" t="n">
-        <v>4</v>
+        <v>1.07611119241729</v>
       </c>
       <c r="AA54" t="n">
-        <v>5</v>
+        <v>1.345138990521613</v>
       </c>
       <c r="AB54" t="n">
         <v>0</v>
       </c>
       <c r="AC54" t="n">
-        <v>5</v>
+        <v>1.345138990521613</v>
       </c>
       <c r="AD54" t="inlineStr"/>
       <c r="AE54" t="inlineStr"/>
@@ -12265,22 +12265,22 @@
         <v>0.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>4</v>
+        <v>0.7102333869954115</v>
       </c>
       <c r="AT54" t="n">
-        <v>2</v>
+        <v>0.3551166934977057</v>
       </c>
       <c r="AU54" t="n">
-        <v>10</v>
+        <v>2.690277981043225</v>
       </c>
       <c r="AV54" t="n">
-        <v>17</v>
+        <v>4.573472567773483</v>
       </c>
       <c r="AW54" t="n">
-        <v>1</v>
+        <v>0.2690277981043225</v>
       </c>
       <c r="AX54" t="n">
-        <v>5</v>
+        <v>1.345138990521613</v>
       </c>
       <c r="AY54" t="n">
         <v>0.5</v>
@@ -12289,7 +12289,7 @@
         <v>5</v>
       </c>
       <c r="BA54" t="n">
-        <v>170</v>
+        <v>12.3</v>
       </c>
       <c r="BB54" t="n">
         <v>0.1</v>
@@ -12298,7 +12298,7 @@
         <v>0</v>
       </c>
       <c r="BD54" t="n">
-        <v>1</v>
+        <v>0.2690277981043225</v>
       </c>
       <c r="BE54" t="n">
         <v>1</v>
@@ -12436,38 +12436,38 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
-        <v>4</v>
+        <v>0.502009970690341</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>0.2510049853451705</v>
       </c>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="n">
-        <v>6</v>
+        <v>1.158484547746941</v>
       </c>
       <c r="W55" t="n">
-        <v>12</v>
+        <v>2.316969095493882</v>
       </c>
       <c r="X55" t="n">
-        <v>1</v>
+        <v>0.1930807579578235</v>
       </c>
       <c r="Y55" t="n">
         <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>4</v>
+        <v>1.544646063662588</v>
       </c>
       <c r="AA55" t="n">
-        <v>5</v>
+        <v>1.930807579578235</v>
       </c>
       <c r="AB55" t="n">
         <v>0</v>
       </c>
       <c r="AC55" t="n">
-        <v>5</v>
+        <v>1.930807579578235</v>
       </c>
       <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="inlineStr"/>
@@ -12491,40 +12491,40 @@
         <v>0.217</v>
       </c>
       <c r="AS55" t="n">
-        <v>4</v>
+        <v>0.502009970690341</v>
       </c>
       <c r="AT55" t="n">
-        <v>2</v>
+        <v>0.2510049853451705</v>
       </c>
       <c r="AU55" t="n">
+        <v>2.703130611409529</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>4.247776675072116</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>0.1930807579578235</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1.930807579578235</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AZ55" t="n">
         <v>10</v>
       </c>
-      <c r="AV55" t="n">
-        <v>17</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY55" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AZ55" t="n">
-        <v>5</v>
-      </c>
       <c r="BA55" t="n">
-        <v>170</v>
+        <v>11.48</v>
       </c>
       <c r="BB55" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BC55" t="n">
         <v>0</v>
       </c>
       <c r="BD55" t="n">
-        <v>1</v>
+        <v>0.1930807579578235</v>
       </c>
       <c r="BE55" t="n">
         <v>1</v>
@@ -12662,38 +12662,38 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>0.3854683259471981</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>0.192734162973599</v>
       </c>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="n">
-        <v>6</v>
+        <v>0.9034413889387456</v>
       </c>
       <c r="W56" t="n">
-        <v>12</v>
+        <v>1.806882777877491</v>
       </c>
       <c r="X56" t="n">
-        <v>1</v>
+        <v>0.1505735648231243</v>
       </c>
       <c r="Y56" t="n">
         <v>0</v>
       </c>
       <c r="Z56" t="n">
-        <v>4</v>
+        <v>1.806882777877491</v>
       </c>
       <c r="AA56" t="n">
-        <v>5</v>
+        <v>2.258603472346864</v>
       </c>
       <c r="AB56" t="n">
         <v>0</v>
       </c>
       <c r="AC56" t="n">
-        <v>5</v>
+        <v>2.258603472346864</v>
       </c>
       <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="inlineStr"/>
@@ -12717,40 +12717,40 @@
         <v>0.16</v>
       </c>
       <c r="AS56" t="n">
-        <v>4</v>
+        <v>0.3854683259471981</v>
       </c>
       <c r="AT56" t="n">
-        <v>2</v>
+        <v>0.192734162973599</v>
       </c>
       <c r="AU56" t="n">
-        <v>10</v>
+        <v>2.710324166816237</v>
       </c>
       <c r="AV56" t="n">
-        <v>17</v>
+        <v>4.065486250224355</v>
       </c>
       <c r="AW56" t="n">
-        <v>1</v>
+        <v>0.1505735648231243</v>
       </c>
       <c r="AX56" t="n">
-        <v>5</v>
+        <v>2.258603472346864</v>
       </c>
       <c r="AY56" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AZ56" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BA56" t="n">
-        <v>170</v>
+        <v>11.02</v>
       </c>
       <c r="BB56" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="BC56" t="n">
         <v>0</v>
       </c>
       <c r="BD56" t="n">
-        <v>1</v>
+        <v>0.1505735648231243</v>
       </c>
       <c r="BE56" t="n">
         <v>1</v>
@@ -12888,38 +12888,38 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
-        <v>4</v>
+        <v>0.8630046906128183</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>0.4315023453064091</v>
       </c>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="n">
-        <v>6</v>
+        <v>1.823249346365109</v>
       </c>
       <c r="W57" t="n">
-        <v>12</v>
+        <v>3.646498692730218</v>
       </c>
       <c r="X57" t="n">
-        <v>1</v>
+        <v>0.3038748910608515</v>
       </c>
       <c r="Y57" t="n">
         <v>0</v>
       </c>
       <c r="Z57" t="n">
-        <v>6</v>
+        <v>1.823249346365109</v>
       </c>
       <c r="AA57" t="n">
-        <v>5</v>
+        <v>1.519374455304258</v>
       </c>
       <c r="AB57" t="n">
         <v>0</v>
       </c>
       <c r="AC57" t="n">
-        <v>1</v>
+        <v>0.3038748910608515</v>
       </c>
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr"/>
@@ -12943,22 +12943,22 @@
         <v>0.355</v>
       </c>
       <c r="AS57" t="n">
-        <v>4</v>
+        <v>0.8630046906128183</v>
       </c>
       <c r="AT57" t="n">
-        <v>2</v>
+        <v>0.4315023453064091</v>
       </c>
       <c r="AU57" t="n">
-        <v>12</v>
+        <v>3.646498692730218</v>
       </c>
       <c r="AV57" t="n">
-        <v>17</v>
+        <v>5.165873148034476</v>
       </c>
       <c r="AW57" t="n">
-        <v>1</v>
+        <v>0.3038748910608515</v>
       </c>
       <c r="AX57" t="n">
-        <v>1</v>
+        <v>0.3038748910608515</v>
       </c>
       <c r="AY57" t="n">
         <v>0.08</v>
@@ -12967,7 +12967,7 @@
         <v>1</v>
       </c>
       <c r="BA57" t="n">
-        <v>204</v>
+        <v>18.84</v>
       </c>
       <c r="BB57" t="n">
         <v>0.08</v>
@@ -12976,7 +12976,7 @@
         <v>0</v>
       </c>
       <c r="BD57" t="n">
-        <v>1</v>
+        <v>0.3038748910608515</v>
       </c>
       <c r="BE57" t="n">
         <v>1</v>
@@ -13114,38 +13114,38 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>0.6614506557810786</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>0.3307253278905393</v>
       </c>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="n">
-        <v>6</v>
+        <v>1.417394262388026</v>
       </c>
       <c r="W58" t="n">
-        <v>12</v>
+        <v>2.834788524776052</v>
       </c>
       <c r="X58" t="n">
-        <v>1</v>
+        <v>0.236232377064671</v>
       </c>
       <c r="Y58" t="n">
         <v>0</v>
       </c>
       <c r="Z58" t="n">
-        <v>6</v>
+        <v>2.834788524776052</v>
       </c>
       <c r="AA58" t="n">
-        <v>5</v>
+        <v>2.36232377064671</v>
       </c>
       <c r="AB58" t="n">
         <v>0</v>
       </c>
       <c r="AC58" t="n">
-        <v>1</v>
+        <v>0.4724647541293419</v>
       </c>
       <c r="AD58" t="inlineStr"/>
       <c r="AE58" t="inlineStr"/>
@@ -13169,40 +13169,40 @@
         <v>0.233</v>
       </c>
       <c r="AS58" t="n">
-        <v>4</v>
+        <v>0.6614506557810786</v>
       </c>
       <c r="AT58" t="n">
+        <v>0.3307253278905393</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>4.252182787164077</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>5.197112295422761</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>0.236232377064671</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>0.4724647541293419</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AZ58" t="n">
         <v>2</v>
       </c>
-      <c r="AU58" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>17</v>
-      </c>
-      <c r="AW58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY58" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AZ58" t="n">
-        <v>1</v>
-      </c>
       <c r="BA58" t="n">
-        <v>204</v>
+        <v>22.1</v>
       </c>
       <c r="BB58" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="BC58" t="n">
         <v>0</v>
       </c>
       <c r="BD58" t="n">
-        <v>1</v>
+        <v>0.236232377064671</v>
       </c>
       <c r="BE58" t="n">
         <v>1</v>
@@ -13340,38 +13340,38 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
-        <v>4</v>
+        <v>0.5332908761659941</v>
       </c>
       <c r="Q59" t="n">
-        <v>2</v>
+        <v>0.2666454380829971</v>
       </c>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="n">
-        <v>6</v>
+        <v>1.159327991665205</v>
       </c>
       <c r="W59" t="n">
-        <v>12</v>
+        <v>2.318655983330409</v>
       </c>
       <c r="X59" t="n">
-        <v>1</v>
+        <v>0.1932213319442008</v>
       </c>
       <c r="Y59" t="n">
         <v>0</v>
       </c>
       <c r="Z59" t="n">
-        <v>6</v>
+        <v>3.477983974995614</v>
       </c>
       <c r="AA59" t="n">
-        <v>5</v>
+        <v>2.898319979163011</v>
       </c>
       <c r="AB59" t="n">
         <v>0</v>
       </c>
       <c r="AC59" t="n">
-        <v>1</v>
+        <v>0.5796639958326023</v>
       </c>
       <c r="AD59" t="inlineStr"/>
       <c r="AE59" t="inlineStr"/>
@@ -13395,40 +13395,40 @@
         <v>0.173</v>
       </c>
       <c r="AS59" t="n">
-        <v>4</v>
+        <v>0.5332908761659941</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>0.2666454380829971</v>
       </c>
       <c r="AU59" t="n">
-        <v>12</v>
+        <v>4.637311966660818</v>
       </c>
       <c r="AV59" t="n">
-        <v>17</v>
+        <v>5.216975962493421</v>
       </c>
       <c r="AW59" t="n">
-        <v>1</v>
+        <v>0.1932213319442008</v>
       </c>
       <c r="AX59" t="n">
-        <v>1</v>
+        <v>0.5796639958326023</v>
       </c>
       <c r="AY59" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="AZ59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA59" t="n">
-        <v>204</v>
+        <v>24.19</v>
       </c>
       <c r="BB59" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="BC59" t="n">
         <v>0</v>
       </c>
       <c r="BD59" t="n">
-        <v>1</v>
+        <v>0.1932213319442008</v>
       </c>
       <c r="BE59" t="n">
         <v>1</v>
@@ -13566,38 +13566,38 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="n">
-        <v>4</v>
+        <v>0.5793147759500105</v>
       </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>0.2896573879750052</v>
       </c>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="n">
-        <v>6</v>
+        <v>1.316624490795478</v>
       </c>
       <c r="W60" t="n">
-        <v>12</v>
+        <v>2.633248981590956</v>
       </c>
       <c r="X60" t="n">
-        <v>1</v>
+        <v>0.2194374151325797</v>
       </c>
       <c r="Y60" t="n">
         <v>0</v>
       </c>
       <c r="Z60" t="n">
-        <v>5</v>
+        <v>1.097187075662899</v>
       </c>
       <c r="AA60" t="n">
-        <v>4</v>
+        <v>0.8777496605303188</v>
       </c>
       <c r="AB60" t="n">
-        <v>1</v>
+        <v>0.2194374151325797</v>
       </c>
       <c r="AC60" t="n">
-        <v>8</v>
+        <v>1.755499321060638</v>
       </c>
       <c r="AD60" t="inlineStr"/>
       <c r="AE60" t="inlineStr"/>
@@ -13621,22 +13621,22 @@
         <v>0.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>4</v>
+        <v>0.5793147759500105</v>
       </c>
       <c r="AT60" t="n">
-        <v>2</v>
+        <v>0.2896573879750052</v>
       </c>
       <c r="AU60" t="n">
-        <v>11</v>
+        <v>2.413811566458377</v>
       </c>
       <c r="AV60" t="n">
-        <v>16</v>
+        <v>3.510998642121275</v>
       </c>
       <c r="AW60" t="n">
-        <v>2</v>
+        <v>0.4388748302651594</v>
       </c>
       <c r="AX60" t="n">
-        <v>8</v>
+        <v>1.755499321060638</v>
       </c>
       <c r="AY60" t="n">
         <v>0.73</v>
@@ -13645,7 +13645,7 @@
         <v>4</v>
       </c>
       <c r="BA60" t="n">
-        <v>176</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="BB60" t="n">
         <v>0.18</v>
@@ -13654,7 +13654,7 @@
         <v>0</v>
       </c>
       <c r="BD60" t="n">
-        <v>2</v>
+        <v>0.4388748302651594</v>
       </c>
       <c r="BE60" t="n">
         <v>1</v>
@@ -13792,38 +13792,38 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="n">
-        <v>4</v>
+        <v>0.3838365275123555</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
+        <v>0.1919182637561778</v>
       </c>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="n">
-        <v>6</v>
+        <v>0.8723557443462625</v>
       </c>
       <c r="W61" t="n">
-        <v>12</v>
+        <v>1.744711488692525</v>
       </c>
       <c r="X61" t="n">
-        <v>1</v>
+        <v>0.1453926240577104</v>
       </c>
       <c r="Y61" t="n">
         <v>0</v>
       </c>
       <c r="Z61" t="n">
-        <v>5</v>
+        <v>1.453926240577104</v>
       </c>
       <c r="AA61" t="n">
-        <v>4</v>
+        <v>1.163140992461683</v>
       </c>
       <c r="AB61" t="n">
-        <v>1</v>
+        <v>0.2907852481154208</v>
       </c>
       <c r="AC61" t="n">
-        <v>8</v>
+        <v>2.326281984923367</v>
       </c>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="inlineStr"/>
@@ -13847,40 +13847,40 @@
         <v>0.22</v>
       </c>
       <c r="AS61" t="n">
-        <v>4</v>
+        <v>0.3838365275123555</v>
       </c>
       <c r="AT61" t="n">
-        <v>2</v>
+        <v>0.1919182637561778</v>
       </c>
       <c r="AU61" t="n">
-        <v>11</v>
+        <v>2.326281984923367</v>
       </c>
       <c r="AV61" t="n">
-        <v>16</v>
+        <v>2.907852481154208</v>
       </c>
       <c r="AW61" t="n">
-        <v>2</v>
+        <v>0.4361778721731313</v>
       </c>
       <c r="AX61" t="n">
-        <v>8</v>
+        <v>2.326281984923367</v>
       </c>
       <c r="AY61" t="n">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AZ61" t="n">
-        <v>4</v>
+        <v>5.33</v>
       </c>
       <c r="BA61" t="n">
-        <v>176</v>
+        <v>6.76</v>
       </c>
       <c r="BB61" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="BC61" t="n">
         <v>0</v>
       </c>
       <c r="BD61" t="n">
-        <v>2</v>
+        <v>0.4361778721731313</v>
       </c>
       <c r="BE61" t="n">
         <v>1</v>
@@ -14018,38 +14018,38 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="n">
-        <v>4</v>
+        <v>0.2869955780938884</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>0.1434977890469442</v>
       </c>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="n">
-        <v>6</v>
+        <v>0.65226267748611</v>
       </c>
       <c r="W62" t="n">
-        <v>12</v>
+        <v>1.30452535497222</v>
       </c>
       <c r="X62" t="n">
-        <v>1</v>
+        <v>0.108710446247685</v>
       </c>
       <c r="Y62" t="n">
         <v>0</v>
       </c>
       <c r="Z62" t="n">
-        <v>5</v>
+        <v>1.630656693715275</v>
       </c>
       <c r="AA62" t="n">
-        <v>4</v>
+        <v>1.30452535497222</v>
       </c>
       <c r="AB62" t="n">
-        <v>1</v>
+        <v>0.326131338743055</v>
       </c>
       <c r="AC62" t="n">
-        <v>8</v>
+        <v>2.60905070994444</v>
       </c>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr"/>
@@ -14073,40 +14073,40 @@
         <v>0.165</v>
       </c>
       <c r="AS62" t="n">
-        <v>4</v>
+        <v>0.2869955780938884</v>
       </c>
       <c r="AT62" t="n">
-        <v>2</v>
+        <v>0.1434977890469442</v>
       </c>
       <c r="AU62" t="n">
-        <v>11</v>
+        <v>2.282919371201385</v>
       </c>
       <c r="AV62" t="n">
-        <v>16</v>
+        <v>2.60905070994444</v>
       </c>
       <c r="AW62" t="n">
-        <v>2</v>
+        <v>0.43484178499074</v>
       </c>
       <c r="AX62" t="n">
-        <v>8</v>
+        <v>2.60905070994444</v>
       </c>
       <c r="AY62" t="n">
-        <v>0.73</v>
+        <v>1.14</v>
       </c>
       <c r="AZ62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA62" t="n">
-        <v>176</v>
+        <v>5.96</v>
       </c>
       <c r="BB62" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="BC62" t="n">
         <v>0</v>
       </c>
       <c r="BD62" t="n">
-        <v>2</v>
+        <v>0.43484178499074</v>
       </c>
       <c r="BE62" t="n">
         <v>1</v>
@@ -14242,23 +14242,23 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="n">
-        <v>4</v>
+        <v>0.9961364137666053</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>0.4980682068833027</v>
       </c>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="n">
-        <v>3</v>
+        <v>1.778815024583224</v>
       </c>
       <c r="W63" t="n">
-        <v>6</v>
+        <v>3.557630049166447</v>
       </c>
       <c r="X63" t="n">
-        <v>3</v>
+        <v>1.778815024583224</v>
       </c>
       <c r="Y63" t="n">
         <v>0</v>
@@ -14289,19 +14289,19 @@
         <v>0.42</v>
       </c>
       <c r="AS63" t="n">
-        <v>4</v>
+        <v>0.9961364137666053</v>
       </c>
       <c r="AT63" t="n">
-        <v>2</v>
+        <v>0.4980682068833027</v>
       </c>
       <c r="AU63" t="n">
-        <v>3</v>
+        <v>1.778815024583224</v>
       </c>
       <c r="AV63" t="n">
-        <v>6</v>
+        <v>3.557630049166447</v>
       </c>
       <c r="AW63" t="n">
-        <v>3</v>
+        <v>1.778815024583224</v>
       </c>
       <c r="AX63" t="n">
         <v>0</v>
@@ -14313,7 +14313,7 @@
         <v>0</v>
       </c>
       <c r="BA63" t="n">
-        <v>18</v>
+        <v>6.33</v>
       </c>
       <c r="BB63" t="n">
         <v>1</v>
@@ -14322,7 +14322,7 @@
         <v>1</v>
       </c>
       <c r="BD63" t="n">
-        <v>2</v>
+        <v>0.7788150245832237</v>
       </c>
       <c r="BE63" t="n">
         <v>0</v>
@@ -14452,23 +14452,23 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
-        <v>4</v>
+        <v>1.177320418726977</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>0.5886602093634887</v>
       </c>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="n">
-        <v>3</v>
+        <v>1.496593752619039</v>
       </c>
       <c r="W64" t="n">
-        <v>6</v>
+        <v>2.993187505238078</v>
       </c>
       <c r="X64" t="n">
-        <v>3</v>
+        <v>1.496593752619039</v>
       </c>
       <c r="Y64" t="n">
         <v>0</v>
@@ -14499,19 +14499,19 @@
         <v>0.59</v>
       </c>
       <c r="AS64" t="n">
-        <v>4</v>
+        <v>1.177320418726977</v>
       </c>
       <c r="AT64" t="n">
-        <v>2</v>
+        <v>0.5886602093634887</v>
       </c>
       <c r="AU64" t="n">
-        <v>3</v>
+        <v>1.496593752619039</v>
       </c>
       <c r="AV64" t="n">
-        <v>6</v>
+        <v>2.993187505238078</v>
       </c>
       <c r="AW64" t="n">
-        <v>3</v>
+        <v>1.496593752619039</v>
       </c>
       <c r="AX64" t="n">
         <v>0</v>
@@ -14523,7 +14523,7 @@
         <v>0</v>
       </c>
       <c r="BA64" t="n">
-        <v>18</v>
+        <v>4.48</v>
       </c>
       <c r="BB64" t="n">
         <v>1</v>
@@ -14532,7 +14532,7 @@
         <v>1</v>
       </c>
       <c r="BD64" t="n">
-        <v>2</v>
+        <v>0.4965937526190392</v>
       </c>
       <c r="BE64" t="n">
         <v>0</v>
@@ -14662,23 +14662,23 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
-        <v>4</v>
+        <v>1.3088847440872</v>
       </c>
       <c r="Q65" t="n">
-        <v>2</v>
+        <v>0.6544423720435998</v>
       </c>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="n">
-        <v>3</v>
+        <v>1.291662576401841</v>
       </c>
       <c r="W65" t="n">
-        <v>6</v>
+        <v>2.583325152803683</v>
       </c>
       <c r="X65" t="n">
-        <v>3</v>
+        <v>1.291662576401841</v>
       </c>
       <c r="Y65" t="n">
         <v>0</v>
@@ -14709,19 +14709,19 @@
         <v>0.76</v>
       </c>
       <c r="AS65" t="n">
-        <v>4</v>
+        <v>1.3088847440872</v>
       </c>
       <c r="AT65" t="n">
-        <v>2</v>
+        <v>0.6544423720435998</v>
       </c>
       <c r="AU65" t="n">
-        <v>3</v>
+        <v>1.291662576401841</v>
       </c>
       <c r="AV65" t="n">
-        <v>6</v>
+        <v>2.583325152803683</v>
       </c>
       <c r="AW65" t="n">
-        <v>3</v>
+        <v>1.291662576401841</v>
       </c>
       <c r="AX65" t="n">
         <v>0</v>
@@ -14733,7 +14733,7 @@
         <v>0</v>
       </c>
       <c r="BA65" t="n">
-        <v>18</v>
+        <v>3.34</v>
       </c>
       <c r="BB65" t="n">
         <v>1</v>
@@ -14742,7 +14742,7 @@
         <v>1</v>
       </c>
       <c r="BD65" t="n">
-        <v>2</v>
+        <v>0.2916625764018415</v>
       </c>
       <c r="BE65" t="n">
         <v>0</v>
@@ -14872,23 +14872,23 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
-        <v>4</v>
+        <v>1.364935607155474</v>
       </c>
       <c r="Q66" t="n">
-        <v>2</v>
+        <v>0.6824678035777371</v>
       </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="n">
-        <v>3</v>
+        <v>1.204354947490124</v>
       </c>
       <c r="W66" t="n">
-        <v>6</v>
+        <v>2.408709894980249</v>
       </c>
       <c r="X66" t="n">
-        <v>3</v>
+        <v>1.204354947490124</v>
       </c>
       <c r="Y66" t="n">
         <v>0</v>
@@ -14919,19 +14919,19 @@
         <v>0.85</v>
       </c>
       <c r="AS66" t="n">
-        <v>4</v>
+        <v>1.364935607155474</v>
       </c>
       <c r="AT66" t="n">
-        <v>2</v>
+        <v>0.6824678035777371</v>
       </c>
       <c r="AU66" t="n">
-        <v>3</v>
+        <v>1.204354947490124</v>
       </c>
       <c r="AV66" t="n">
-        <v>6</v>
+        <v>2.408709894980249</v>
       </c>
       <c r="AW66" t="n">
-        <v>3</v>
+        <v>1.204354947490124</v>
       </c>
       <c r="AX66" t="n">
         <v>0</v>
@@ -14943,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="BA66" t="n">
-        <v>18</v>
+        <v>2.9</v>
       </c>
       <c r="BB66" t="n">
         <v>1</v>
@@ -14952,7 +14952,7 @@
         <v>1</v>
       </c>
       <c r="BD66" t="n">
-        <v>2</v>
+        <v>0.2043549474901243</v>
       </c>
       <c r="BE66" t="n">
         <v>0</v>
@@ -15084,38 +15084,38 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
-        <v>4</v>
+        <v>0.7655300163241189</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>0.3827650081620594</v>
       </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="n">
-        <v>3</v>
+        <v>0.808658467948013</v>
       </c>
       <c r="W67" t="n">
-        <v>6</v>
+        <v>1.617316935896026</v>
       </c>
       <c r="X67" t="n">
-        <v>3</v>
+        <v>0.808658467948013</v>
       </c>
       <c r="Y67" t="n">
         <v>0</v>
       </c>
       <c r="Z67" t="n">
-        <v>4</v>
+        <v>1.078211290597351</v>
       </c>
       <c r="AA67" t="n">
-        <v>5</v>
+        <v>1.347764113246688</v>
       </c>
       <c r="AB67" t="n">
         <v>0</v>
       </c>
       <c r="AC67" t="n">
-        <v>5</v>
+        <v>1.347764113246688</v>
       </c>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr"/>
@@ -15139,22 +15139,22 @@
         <v>0.355</v>
       </c>
       <c r="AS67" t="n">
-        <v>4</v>
+        <v>0.7655300163241189</v>
       </c>
       <c r="AT67" t="n">
-        <v>2</v>
+        <v>0.3827650081620594</v>
       </c>
       <c r="AU67" t="n">
-        <v>7</v>
+        <v>1.886869758545364</v>
       </c>
       <c r="AV67" t="n">
-        <v>11</v>
+        <v>2.965081049142714</v>
       </c>
       <c r="AW67" t="n">
-        <v>3</v>
+        <v>0.808658467948013</v>
       </c>
       <c r="AX67" t="n">
-        <v>5</v>
+        <v>1.347764113246688</v>
       </c>
       <c r="AY67" t="n">
         <v>0.71</v>
@@ -15163,7 +15163,7 @@
         <v>1.67</v>
       </c>
       <c r="BA67" t="n">
-        <v>77</v>
+        <v>5.59</v>
       </c>
       <c r="BB67" t="n">
         <v>0.43</v>
@@ -15172,7 +15172,7 @@
         <v>1</v>
       </c>
       <c r="BD67" t="n">
-        <v>2</v>
+        <v>-0.191341532051987</v>
       </c>
       <c r="BE67" t="n">
         <v>0</v>
@@ -15310,38 +15310,38 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
-        <v>4</v>
+        <v>0.5179407617025185</v>
       </c>
       <c r="Q68" t="n">
-        <v>2</v>
+        <v>0.2589703808512592</v>
       </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="n">
-        <v>3</v>
+        <v>0.5885690473892256</v>
       </c>
       <c r="W68" t="n">
-        <v>6</v>
+        <v>1.177138094778451</v>
       </c>
       <c r="X68" t="n">
-        <v>3</v>
+        <v>0.5885690473892256</v>
       </c>
       <c r="Y68" t="n">
         <v>0</v>
       </c>
       <c r="Z68" t="n">
-        <v>4</v>
+        <v>1.569517459704601</v>
       </c>
       <c r="AA68" t="n">
-        <v>5</v>
+        <v>1.961896824630752</v>
       </c>
       <c r="AB68" t="n">
         <v>0</v>
       </c>
       <c r="AC68" t="n">
-        <v>5</v>
+        <v>1.961896824630752</v>
       </c>
       <c r="AD68" t="inlineStr"/>
       <c r="AE68" t="inlineStr"/>
@@ -15365,40 +15365,40 @@
         <v>0.22</v>
       </c>
       <c r="AS68" t="n">
-        <v>4</v>
+        <v>0.5179407617025185</v>
       </c>
       <c r="AT68" t="n">
-        <v>2</v>
+        <v>0.2589703808512592</v>
       </c>
       <c r="AU68" t="n">
-        <v>7</v>
+        <v>2.158086507093827</v>
       </c>
       <c r="AV68" t="n">
-        <v>11</v>
+        <v>3.139034919409203</v>
       </c>
       <c r="AW68" t="n">
-        <v>3</v>
+        <v>0.5885690473892256</v>
       </c>
       <c r="AX68" t="n">
-        <v>5</v>
+        <v>1.961896824630752</v>
       </c>
       <c r="AY68" t="n">
-        <v>0.71</v>
+        <v>0.91</v>
       </c>
       <c r="AZ68" t="n">
-        <v>1.67</v>
+        <v>3.33</v>
       </c>
       <c r="BA68" t="n">
-        <v>77</v>
+        <v>6.77</v>
       </c>
       <c r="BB68" t="n">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="BC68" t="n">
         <v>1</v>
       </c>
       <c r="BD68" t="n">
-        <v>2</v>
+        <v>-0.4114309526107744</v>
       </c>
       <c r="BE68" t="n">
         <v>0</v>
@@ -15536,38 +15536,38 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
-        <v>4</v>
+        <v>0.3711918040849658</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>0.1855959020424829</v>
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="n">
-        <v>3</v>
+        <v>0.4639897551062073</v>
       </c>
       <c r="W69" t="n">
-        <v>6</v>
+        <v>0.9279795102124146</v>
       </c>
       <c r="X69" t="n">
-        <v>3</v>
+        <v>0.4639897551062073</v>
       </c>
       <c r="Y69" t="n">
         <v>0</v>
       </c>
       <c r="Z69" t="n">
-        <v>4</v>
+        <v>1.855959020424829</v>
       </c>
       <c r="AA69" t="n">
-        <v>5</v>
+        <v>2.319948775531037</v>
       </c>
       <c r="AB69" t="n">
         <v>0</v>
       </c>
       <c r="AC69" t="n">
-        <v>5</v>
+        <v>2.319948775531037</v>
       </c>
       <c r="AD69" t="inlineStr"/>
       <c r="AE69" t="inlineStr"/>
@@ -15591,40 +15591,40 @@
         <v>0.15</v>
       </c>
       <c r="AS69" t="n">
-        <v>4</v>
+        <v>0.3711918040849658</v>
       </c>
       <c r="AT69" t="n">
-        <v>2</v>
+        <v>0.1855959020424829</v>
       </c>
       <c r="AU69" t="n">
-        <v>7</v>
+        <v>2.319948775531037</v>
       </c>
       <c r="AV69" t="n">
-        <v>11</v>
+        <v>3.247928285743451</v>
       </c>
       <c r="AW69" t="n">
-        <v>3</v>
+        <v>0.4639897551062073</v>
       </c>
       <c r="AX69" t="n">
+        <v>2.319948775531037</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ69" t="n">
         <v>5</v>
       </c>
-      <c r="AY69" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AZ69" t="n">
-        <v>1.67</v>
-      </c>
       <c r="BA69" t="n">
-        <v>77</v>
+        <v>7.54</v>
       </c>
       <c r="BB69" t="n">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="BC69" t="n">
         <v>1</v>
       </c>
       <c r="BD69" t="n">
-        <v>2</v>
+        <v>-0.5360102448937927</v>
       </c>
       <c r="BE69" t="n">
         <v>0</v>
@@ -15762,38 +15762,38 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="n">
-        <v>4</v>
+        <v>0.9188699125235844</v>
       </c>
       <c r="Q70" t="n">
-        <v>2</v>
+        <v>0.4594349562617922</v>
       </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="n">
-        <v>3</v>
+        <v>0.9188699125235844</v>
       </c>
       <c r="W70" t="n">
-        <v>6</v>
+        <v>1.837739825047169</v>
       </c>
       <c r="X70" t="n">
-        <v>3</v>
+        <v>0.9188699125235844</v>
       </c>
       <c r="Y70" t="n">
         <v>0</v>
       </c>
       <c r="Z70" t="n">
-        <v>6</v>
+        <v>1.837739825047169</v>
       </c>
       <c r="AA70" t="n">
-        <v>5</v>
+        <v>1.531449854205974</v>
       </c>
       <c r="AB70" t="n">
         <v>0</v>
       </c>
       <c r="AC70" t="n">
-        <v>1</v>
+        <v>0.3062899708411948</v>
       </c>
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr"/>
@@ -15817,22 +15817,22 @@
         <v>0.375</v>
       </c>
       <c r="AS70" t="n">
-        <v>4</v>
+        <v>0.9188699125235844</v>
       </c>
       <c r="AT70" t="n">
-        <v>2</v>
+        <v>0.4594349562617922</v>
       </c>
       <c r="AU70" t="n">
-        <v>9</v>
+        <v>2.756609737570753</v>
       </c>
       <c r="AV70" t="n">
-        <v>11</v>
+        <v>3.369189679253143</v>
       </c>
       <c r="AW70" t="n">
-        <v>3</v>
+        <v>0.9188699125235844</v>
       </c>
       <c r="AX70" t="n">
-        <v>1</v>
+        <v>0.3062899708411948</v>
       </c>
       <c r="AY70" t="n">
         <v>0.11</v>
@@ -15841,7 +15841,7 @@
         <v>0.33</v>
       </c>
       <c r="BA70" t="n">
-        <v>99</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="BB70" t="n">
         <v>0.33</v>
@@ -15850,7 +15850,7 @@
         <v>1</v>
       </c>
       <c r="BD70" t="n">
-        <v>2</v>
+        <v>-0.08113008747641559</v>
       </c>
       <c r="BE70" t="n">
         <v>0</v>
@@ -15988,38 +15988,38 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="n">
-        <v>4</v>
+        <v>0.664236991944173</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>0.3321184959720865</v>
       </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="n">
-        <v>3</v>
+        <v>0.7326143293501907</v>
       </c>
       <c r="W71" t="n">
-        <v>6</v>
+        <v>1.465228658700381</v>
       </c>
       <c r="X71" t="n">
-        <v>3</v>
+        <v>0.7326143293501907</v>
       </c>
       <c r="Y71" t="n">
         <v>0</v>
       </c>
       <c r="Z71" t="n">
-        <v>6</v>
+        <v>2.930457317400763</v>
       </c>
       <c r="AA71" t="n">
-        <v>5</v>
+        <v>2.442047764500636</v>
       </c>
       <c r="AB71" t="n">
         <v>0</v>
       </c>
       <c r="AC71" t="n">
-        <v>1</v>
+        <v>0.4884095529001271</v>
       </c>
       <c r="AD71" t="inlineStr"/>
       <c r="AE71" t="inlineStr"/>
@@ -16043,40 +16043,40 @@
         <v>0.227</v>
       </c>
       <c r="AS71" t="n">
-        <v>4</v>
+        <v>0.664236991944173</v>
       </c>
       <c r="AT71" t="n">
-        <v>2</v>
+        <v>0.3321184959720865</v>
       </c>
       <c r="AU71" t="n">
-        <v>9</v>
+        <v>3.663071646750953</v>
       </c>
       <c r="AV71" t="n">
-        <v>11</v>
+        <v>3.907276423201017</v>
       </c>
       <c r="AW71" t="n">
-        <v>3</v>
+        <v>0.7326143293501907</v>
       </c>
       <c r="AX71" t="n">
-        <v>1</v>
+        <v>0.4884095529001271</v>
       </c>
       <c r="AY71" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="AZ71" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="BA71" t="n">
-        <v>99</v>
+        <v>14.31</v>
       </c>
       <c r="BB71" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="BC71" t="n">
         <v>1</v>
       </c>
       <c r="BD71" t="n">
-        <v>2</v>
+        <v>-0.2673856706498093</v>
       </c>
       <c r="BE71" t="n">
         <v>0</v>
@@ -16214,38 +16214,38 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="n">
-        <v>4</v>
+        <v>0.5139435288486942</v>
       </c>
       <c r="Q72" t="n">
-        <v>2</v>
+        <v>0.2569717644243471</v>
       </c>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="n">
-        <v>3</v>
+        <v>0.6022775728695635</v>
       </c>
       <c r="W72" t="n">
-        <v>6</v>
+        <v>1.204555145739127</v>
       </c>
       <c r="X72" t="n">
-        <v>3</v>
+        <v>0.6022775728695635</v>
       </c>
       <c r="Y72" t="n">
         <v>0</v>
       </c>
       <c r="Z72" t="n">
-        <v>6</v>
+        <v>3.613665437217381</v>
       </c>
       <c r="AA72" t="n">
-        <v>5</v>
+        <v>3.011387864347817</v>
       </c>
       <c r="AB72" t="n">
         <v>0</v>
       </c>
       <c r="AC72" t="n">
-        <v>1</v>
+        <v>0.6022775728695635</v>
       </c>
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr"/>
@@ -16269,40 +16269,40 @@
         <v>0.16</v>
       </c>
       <c r="AS72" t="n">
-        <v>4</v>
+        <v>0.5139435288486942</v>
       </c>
       <c r="AT72" t="n">
-        <v>2</v>
+        <v>0.2569717644243471</v>
       </c>
       <c r="AU72" t="n">
-        <v>9</v>
+        <v>4.215943010086945</v>
       </c>
       <c r="AV72" t="n">
-        <v>11</v>
+        <v>4.215943010086944</v>
       </c>
       <c r="AW72" t="n">
-        <v>3</v>
+        <v>0.6022775728695635</v>
       </c>
       <c r="AX72" t="n">
+        <v>0.6022775728695635</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AZ72" t="n">
         <v>1</v>
       </c>
-      <c r="AY72" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AZ72" t="n">
-        <v>0.33</v>
-      </c>
       <c r="BA72" t="n">
-        <v>99</v>
+        <v>17.77</v>
       </c>
       <c r="BB72" t="n">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="BC72" t="n">
         <v>1</v>
       </c>
       <c r="BD72" t="n">
-        <v>2</v>
+        <v>-0.3977224271304365</v>
       </c>
       <c r="BE72" t="n">
         <v>0</v>
@@ -16440,38 +16440,38 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="n">
-        <v>4</v>
+        <v>0.5924159981042688</v>
       </c>
       <c r="Q73" t="n">
-        <v>2</v>
+        <v>0.2962079990521344</v>
       </c>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="n">
-        <v>3</v>
+        <v>0.67319999784576</v>
       </c>
       <c r="W73" t="n">
-        <v>6</v>
+        <v>1.34639999569152</v>
       </c>
       <c r="X73" t="n">
-        <v>3</v>
+        <v>0.67319999784576</v>
       </c>
       <c r="Y73" t="n">
         <v>0</v>
       </c>
       <c r="Z73" t="n">
-        <v>5</v>
+        <v>1.1219999964096</v>
       </c>
       <c r="AA73" t="n">
-        <v>4</v>
+        <v>0.89759999712768</v>
       </c>
       <c r="AB73" t="n">
-        <v>1</v>
+        <v>0.22439999928192</v>
       </c>
       <c r="AC73" t="n">
-        <v>8</v>
+        <v>1.79519999425536</v>
       </c>
       <c r="AD73" t="inlineStr"/>
       <c r="AE73" t="inlineStr"/>
@@ -16495,22 +16495,22 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>4</v>
+        <v>0.5924159981042688</v>
       </c>
       <c r="AT73" t="n">
-        <v>2</v>
+        <v>0.2962079990521344</v>
       </c>
       <c r="AU73" t="n">
-        <v>8</v>
+        <v>1.79519999425536</v>
       </c>
       <c r="AV73" t="n">
-        <v>10</v>
+        <v>2.2439999928192</v>
       </c>
       <c r="AW73" t="n">
-        <v>4</v>
+        <v>0.89759999712768</v>
       </c>
       <c r="AX73" t="n">
-        <v>8</v>
+        <v>1.79519999425536</v>
       </c>
       <c r="AY73" t="n">
         <v>1</v>
@@ -16519,7 +16519,7 @@
         <v>2</v>
       </c>
       <c r="BA73" t="n">
-        <v>80</v>
+        <v>4.03</v>
       </c>
       <c r="BB73" t="n">
         <v>0.5</v>
@@ -16528,7 +16528,7 @@
         <v>1</v>
       </c>
       <c r="BD73" t="n">
-        <v>3</v>
+        <v>-0.10240000287232</v>
       </c>
       <c r="BE73" t="n">
         <v>0</v>
@@ -16666,38 +16666,38 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="n">
-        <v>4</v>
+        <v>0.3500574275245327</v>
       </c>
       <c r="Q74" t="n">
-        <v>2</v>
+        <v>0.1750287137622663</v>
       </c>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="n">
-        <v>3</v>
+        <v>0.4526604666265509</v>
       </c>
       <c r="W74" t="n">
-        <v>6</v>
+        <v>0.9053209332531018</v>
       </c>
       <c r="X74" t="n">
-        <v>3</v>
+        <v>0.4526604666265509</v>
       </c>
       <c r="Y74" t="n">
         <v>0</v>
       </c>
       <c r="Z74" t="n">
-        <v>5</v>
+        <v>1.508868222088503</v>
       </c>
       <c r="AA74" t="n">
-        <v>4</v>
+        <v>1.207094577670802</v>
       </c>
       <c r="AB74" t="n">
-        <v>1</v>
+        <v>0.3017736444177006</v>
       </c>
       <c r="AC74" t="n">
-        <v>8</v>
+        <v>2.414189155341605</v>
       </c>
       <c r="AD74" t="inlineStr"/>
       <c r="AE74" t="inlineStr"/>
@@ -16721,40 +16721,40 @@
         <v>0.193</v>
       </c>
       <c r="AS74" t="n">
-        <v>4</v>
+        <v>0.3500574275245327</v>
       </c>
       <c r="AT74" t="n">
-        <v>2</v>
+        <v>0.1750287137622663</v>
       </c>
       <c r="AU74" t="n">
-        <v>8</v>
+        <v>1.961528688715054</v>
       </c>
       <c r="AV74" t="n">
-        <v>10</v>
+        <v>2.112415510923904</v>
       </c>
       <c r="AW74" t="n">
-        <v>4</v>
+        <v>0.7544341110442515</v>
       </c>
       <c r="AX74" t="n">
-        <v>8</v>
+        <v>2.414189155341605</v>
       </c>
       <c r="AY74" t="n">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AZ74" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="BA74" t="n">
-        <v>80</v>
+        <v>4.14</v>
       </c>
       <c r="BB74" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="BC74" t="n">
         <v>1</v>
       </c>
       <c r="BD74" t="n">
-        <v>3</v>
+        <v>-0.2455658889557485</v>
       </c>
       <c r="BE74" t="n">
         <v>0</v>
@@ -16892,38 +16892,38 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="n">
-        <v>4</v>
+        <v>0.2434221914488489</v>
       </c>
       <c r="Q75" t="n">
-        <v>2</v>
+        <v>0.1217110957244245</v>
       </c>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="n">
-        <v>3</v>
+        <v>0.3380863770122902</v>
       </c>
       <c r="W75" t="n">
-        <v>6</v>
+        <v>0.6761727540245803</v>
       </c>
       <c r="X75" t="n">
-        <v>3</v>
+        <v>0.3380863770122902</v>
       </c>
       <c r="Y75" t="n">
         <v>0</v>
       </c>
       <c r="Z75" t="n">
-        <v>5</v>
+        <v>1.690431885061451</v>
       </c>
       <c r="AA75" t="n">
-        <v>4</v>
+        <v>1.352345508049161</v>
       </c>
       <c r="AB75" t="n">
-        <v>1</v>
+        <v>0.3380863770122902</v>
       </c>
       <c r="AC75" t="n">
-        <v>8</v>
+        <v>2.704691016098321</v>
       </c>
       <c r="AD75" t="inlineStr"/>
       <c r="AE75" t="inlineStr"/>
@@ -16947,40 +16947,40 @@
         <v>0.135</v>
       </c>
       <c r="AS75" t="n">
+        <v>0.2434221914488489</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>0.1217110957244245</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>2.028518262073741</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>2.028518262073741</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>0.6761727540245803</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>2.704691016098321</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AZ75" t="n">
         <v>4</v>
       </c>
-      <c r="AT75" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>10</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ75" t="n">
-        <v>2</v>
-      </c>
       <c r="BA75" t="n">
-        <v>80</v>
+        <v>4.11</v>
       </c>
       <c r="BB75" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="BC75" t="n">
         <v>1</v>
       </c>
       <c r="BD75" t="n">
-        <v>3</v>
+        <v>-0.3238272459754197</v>
       </c>
       <c r="BE75" t="n">
         <v>0</v>
@@ -17116,23 +17116,23 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>1.050597462721013</v>
       </c>
       <c r="Q76" t="n">
-        <v>2</v>
+        <v>0.5252987313605065</v>
       </c>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="n">
-        <v>5</v>
+        <v>2.15286365311683</v>
       </c>
       <c r="W76" t="n">
-        <v>10</v>
+        <v>4.30572730623366</v>
       </c>
       <c r="X76" t="n">
-        <v>3</v>
+        <v>1.291718191870098</v>
       </c>
       <c r="Y76" t="n">
         <v>0</v>
@@ -17163,19 +17163,19 @@
         <v>0.61</v>
       </c>
       <c r="AS76" t="n">
-        <v>4</v>
+        <v>1.050597462721013</v>
       </c>
       <c r="AT76" t="n">
-        <v>2</v>
+        <v>0.5252987313605065</v>
       </c>
       <c r="AU76" t="n">
-        <v>5</v>
+        <v>2.15286365311683</v>
       </c>
       <c r="AV76" t="n">
-        <v>10</v>
+        <v>4.30572730623366</v>
       </c>
       <c r="AW76" t="n">
-        <v>3</v>
+        <v>1.291718191870098</v>
       </c>
       <c r="AX76" t="n">
         <v>0</v>
@@ -17187,7 +17187,7 @@
         <v>0</v>
       </c>
       <c r="BA76" t="n">
-        <v>50</v>
+        <v>9.27</v>
       </c>
       <c r="BB76" t="n">
         <v>0.6</v>
@@ -17196,7 +17196,7 @@
         <v>0</v>
       </c>
       <c r="BD76" t="n">
-        <v>3</v>
+        <v>1.291718191870098</v>
       </c>
       <c r="BE76" t="n">
         <v>0</v>
@@ -17326,23 +17326,23 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
-        <v>4</v>
+        <v>1.167834757528309</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>0.5839173787641543</v>
       </c>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="n">
-        <v>5</v>
+        <v>1.920780851197876</v>
       </c>
       <c r="W77" t="n">
-        <v>10</v>
+        <v>3.841561702395752</v>
       </c>
       <c r="X77" t="n">
-        <v>3</v>
+        <v>1.152468510718726</v>
       </c>
       <c r="Y77" t="n">
         <v>0</v>
@@ -17373,19 +17373,19 @@
         <v>0.76</v>
       </c>
       <c r="AS77" t="n">
-        <v>4</v>
+        <v>1.167834757528309</v>
       </c>
       <c r="AT77" t="n">
-        <v>2</v>
+        <v>0.5839173787641543</v>
       </c>
       <c r="AU77" t="n">
-        <v>5</v>
+        <v>1.920780851197876</v>
       </c>
       <c r="AV77" t="n">
-        <v>10</v>
+        <v>3.841561702395752</v>
       </c>
       <c r="AW77" t="n">
-        <v>3</v>
+        <v>1.152468510718726</v>
       </c>
       <c r="AX77" t="n">
         <v>0</v>
@@ -17397,7 +17397,7 @@
         <v>0</v>
       </c>
       <c r="BA77" t="n">
-        <v>50</v>
+        <v>7.38</v>
       </c>
       <c r="BB77" t="n">
         <v>0.6</v>
@@ -17406,7 +17406,7 @@
         <v>0</v>
       </c>
       <c r="BD77" t="n">
-        <v>3</v>
+        <v>1.152468510718726</v>
       </c>
       <c r="BE77" t="n">
         <v>0</v>
@@ -18088,23 +18088,23 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="n">
-        <v>4</v>
+        <v>0.6443531269920291</v>
       </c>
       <c r="Q81" t="n">
-        <v>2</v>
+        <v>0.3221765634960145</v>
       </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="n">
-        <v>6</v>
+        <v>2.301261167828676</v>
       </c>
       <c r="W81" t="n">
-        <v>15</v>
+        <v>5.753152919571689</v>
       </c>
       <c r="X81" t="n">
-        <v>4</v>
+        <v>1.534174111885784</v>
       </c>
       <c r="Y81" t="n">
         <v>0</v>
@@ -18135,19 +18135,19 @@
         <v>0.42</v>
       </c>
       <c r="AS81" t="n">
-        <v>4</v>
+        <v>0.6443531269920291</v>
       </c>
       <c r="AT81" t="n">
-        <v>2</v>
+        <v>0.3221765634960145</v>
       </c>
       <c r="AU81" t="n">
-        <v>6</v>
+        <v>2.301261167828676</v>
       </c>
       <c r="AV81" t="n">
-        <v>15</v>
+        <v>5.753152919571689</v>
       </c>
       <c r="AW81" t="n">
-        <v>4</v>
+        <v>1.534174111885784</v>
       </c>
       <c r="AX81" t="n">
         <v>0</v>
@@ -18159,7 +18159,7 @@
         <v>0</v>
       </c>
       <c r="BA81" t="n">
-        <v>90</v>
+        <v>13.24</v>
       </c>
       <c r="BB81" t="n">
         <v>0.67</v>
@@ -18168,7 +18168,7 @@
         <v>1</v>
       </c>
       <c r="BD81" t="n">
-        <v>3</v>
+        <v>0.5341741118857837</v>
       </c>
       <c r="BE81" t="n">
         <v>0</v>
@@ -18298,23 +18298,23 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
-        <v>4</v>
+        <v>0.8067543111788115</v>
       </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>0.4033771555894057</v>
       </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="n">
-        <v>6</v>
+        <v>2.051070282657995</v>
       </c>
       <c r="W82" t="n">
-        <v>15</v>
+        <v>5.127675706644989</v>
       </c>
       <c r="X82" t="n">
-        <v>4</v>
+        <v>1.367380188438664</v>
       </c>
       <c r="Y82" t="n">
         <v>0</v>
@@ -18345,19 +18345,19 @@
         <v>0.59</v>
       </c>
       <c r="AS82" t="n">
-        <v>4</v>
+        <v>0.8067543111788115</v>
       </c>
       <c r="AT82" t="n">
-        <v>2</v>
+        <v>0.4033771555894057</v>
       </c>
       <c r="AU82" t="n">
-        <v>6</v>
+        <v>2.051070282657995</v>
       </c>
       <c r="AV82" t="n">
-        <v>15</v>
+        <v>5.127675706644989</v>
       </c>
       <c r="AW82" t="n">
-        <v>4</v>
+        <v>1.367380188438664</v>
       </c>
       <c r="AX82" t="n">
         <v>0</v>
@@ -18369,7 +18369,7 @@
         <v>0</v>
       </c>
       <c r="BA82" t="n">
-        <v>90</v>
+        <v>10.52</v>
       </c>
       <c r="BB82" t="n">
         <v>0.67</v>
@@ -18378,7 +18378,7 @@
         <v>1</v>
       </c>
       <c r="BD82" t="n">
-        <v>3</v>
+        <v>0.3673801884386636</v>
       </c>
       <c r="BE82" t="n">
         <v>0</v>
@@ -18508,23 +18508,23 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="n">
-        <v>4</v>
+        <v>0.996567703585592</v>
       </c>
       <c r="Q83" t="n">
-        <v>2</v>
+        <v>0.498283851792796</v>
       </c>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="n">
-        <v>6</v>
+        <v>1.758648888680456</v>
       </c>
       <c r="W83" t="n">
-        <v>15</v>
+        <v>4.396622221701141</v>
       </c>
       <c r="X83" t="n">
-        <v>4</v>
+        <v>1.172432592453638</v>
       </c>
       <c r="Y83" t="n">
         <v>0</v>
@@ -18555,19 +18555,19 @@
         <v>0.85</v>
       </c>
       <c r="AS83" t="n">
-        <v>4</v>
+        <v>0.996567703585592</v>
       </c>
       <c r="AT83" t="n">
-        <v>2</v>
+        <v>0.498283851792796</v>
       </c>
       <c r="AU83" t="n">
-        <v>6</v>
+        <v>1.758648888680456</v>
       </c>
       <c r="AV83" t="n">
-        <v>15</v>
+        <v>4.396622221701141</v>
       </c>
       <c r="AW83" t="n">
-        <v>4</v>
+        <v>1.172432592453638</v>
       </c>
       <c r="AX83" t="n">
         <v>0</v>
@@ -18579,7 +18579,7 @@
         <v>0</v>
       </c>
       <c r="BA83" t="n">
-        <v>90</v>
+        <v>7.73</v>
       </c>
       <c r="BB83" t="n">
         <v>0.67</v>
@@ -18588,7 +18588,7 @@
         <v>1</v>
       </c>
       <c r="BD83" t="n">
-        <v>3</v>
+        <v>0.1724325924536376</v>
       </c>
       <c r="BE83" t="n">
         <v>0</v>
@@ -18720,38 +18720,38 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
-        <v>4</v>
+        <v>0.9244593453595222</v>
       </c>
       <c r="Q84" t="n">
-        <v>2</v>
+        <v>0.4622296726797611</v>
       </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="n">
-        <v>4</v>
+        <v>1.232612460479363</v>
       </c>
       <c r="W84" t="n">
-        <v>8</v>
+        <v>2.465224920958726</v>
       </c>
       <c r="X84" t="n">
-        <v>2</v>
+        <v>0.6163062302396815</v>
       </c>
       <c r="Y84" t="n">
         <v>0</v>
       </c>
       <c r="Z84" t="n">
-        <v>6</v>
+        <v>1.848918690719044</v>
       </c>
       <c r="AA84" t="n">
-        <v>5</v>
+        <v>1.540765575599204</v>
       </c>
       <c r="AB84" t="n">
         <v>0</v>
       </c>
       <c r="AC84" t="n">
-        <v>1</v>
+        <v>0.3081531151198407</v>
       </c>
       <c r="AD84" t="inlineStr"/>
       <c r="AE84" t="inlineStr"/>
@@ -18775,22 +18775,22 @@
         <v>0.375</v>
       </c>
       <c r="AS84" t="n">
-        <v>4</v>
+        <v>0.9244593453595222</v>
       </c>
       <c r="AT84" t="n">
-        <v>2</v>
+        <v>0.4622296726797611</v>
       </c>
       <c r="AU84" t="n">
-        <v>10</v>
+        <v>3.081531151198408</v>
       </c>
       <c r="AV84" t="n">
-        <v>13</v>
+        <v>4.00599049655793</v>
       </c>
       <c r="AW84" t="n">
-        <v>2</v>
+        <v>0.6163062302396815</v>
       </c>
       <c r="AX84" t="n">
-        <v>1</v>
+        <v>0.3081531151198407</v>
       </c>
       <c r="AY84" t="n">
         <v>0.1</v>
@@ -18799,7 +18799,7 @@
         <v>0.5</v>
       </c>
       <c r="BA84" t="n">
-        <v>130</v>
+        <v>12.34</v>
       </c>
       <c r="BB84" t="n">
         <v>0.2</v>
@@ -18808,7 +18808,7 @@
         <v>0</v>
       </c>
       <c r="BD84" t="n">
-        <v>2</v>
+        <v>0.6163062302396815</v>
       </c>
       <c r="BE84" t="n">
         <v>0</v>
@@ -18946,38 +18946,38 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="n">
-        <v>4</v>
+        <v>0.6741750881557208</v>
       </c>
       <c r="Q85" t="n">
-        <v>2</v>
+        <v>0.3370875440778604</v>
       </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="n">
-        <v>4</v>
+        <v>0.9770653451532186</v>
       </c>
       <c r="W85" t="n">
-        <v>8</v>
+        <v>1.954130690306437</v>
       </c>
       <c r="X85" t="n">
-        <v>2</v>
+        <v>0.4885326725766093</v>
       </c>
       <c r="Y85" t="n">
         <v>0</v>
       </c>
       <c r="Z85" t="n">
-        <v>6</v>
+        <v>2.931196035459656</v>
       </c>
       <c r="AA85" t="n">
-        <v>5</v>
+        <v>2.442663362883047</v>
       </c>
       <c r="AB85" t="n">
         <v>0</v>
       </c>
       <c r="AC85" t="n">
-        <v>1</v>
+        <v>0.4885326725766093</v>
       </c>
       <c r="AD85" t="inlineStr"/>
       <c r="AE85" t="inlineStr"/>
@@ -19001,40 +19001,40 @@
         <v>0.23</v>
       </c>
       <c r="AS85" t="n">
-        <v>4</v>
+        <v>0.6741750881557208</v>
       </c>
       <c r="AT85" t="n">
-        <v>2</v>
+        <v>0.3370875440778604</v>
       </c>
       <c r="AU85" t="n">
-        <v>10</v>
+        <v>3.908261380612875</v>
       </c>
       <c r="AV85" t="n">
-        <v>13</v>
+        <v>4.396794053189484</v>
       </c>
       <c r="AW85" t="n">
-        <v>2</v>
+        <v>0.4885326725766093</v>
       </c>
       <c r="AX85" t="n">
+        <v>0.4885326725766093</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AZ85" t="n">
         <v>1</v>
       </c>
-      <c r="AY85" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AZ85" t="n">
-        <v>0.5</v>
-      </c>
       <c r="BA85" t="n">
-        <v>130</v>
+        <v>17.18</v>
       </c>
       <c r="BB85" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="BC85" t="n">
         <v>0</v>
       </c>
       <c r="BD85" t="n">
-        <v>2</v>
+        <v>0.4885326725766093</v>
       </c>
       <c r="BE85" t="n">
         <v>0</v>
@@ -19172,38 +19172,38 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="n">
-        <v>4</v>
+        <v>0.5220820632683141</v>
       </c>
       <c r="Q86" t="n">
-        <v>2</v>
+        <v>0.261041031634157</v>
       </c>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="n">
-        <v>4</v>
+        <v>0.8032031742589447</v>
       </c>
       <c r="W86" t="n">
-        <v>8</v>
+        <v>1.606406348517889</v>
       </c>
       <c r="X86" t="n">
-        <v>2</v>
+        <v>0.4016015871294724</v>
       </c>
       <c r="Y86" t="n">
         <v>0</v>
       </c>
       <c r="Z86" t="n">
-        <v>6</v>
+        <v>3.614414284165251</v>
       </c>
       <c r="AA86" t="n">
-        <v>5</v>
+        <v>3.012011903471042</v>
       </c>
       <c r="AB86" t="n">
         <v>0</v>
       </c>
       <c r="AC86" t="n">
-        <v>1</v>
+        <v>0.6024023806942085</v>
       </c>
       <c r="AD86" t="inlineStr"/>
       <c r="AE86" t="inlineStr"/>
@@ -19227,40 +19227,40 @@
         <v>0.162</v>
       </c>
       <c r="AS86" t="n">
-        <v>4</v>
+        <v>0.5220820632683141</v>
       </c>
       <c r="AT86" t="n">
-        <v>2</v>
+        <v>0.261041031634157</v>
       </c>
       <c r="AU86" t="n">
-        <v>10</v>
+        <v>4.417617458424195</v>
       </c>
       <c r="AV86" t="n">
-        <v>13</v>
+        <v>4.618418251988931</v>
       </c>
       <c r="AW86" t="n">
-        <v>2</v>
+        <v>0.4016015871294724</v>
       </c>
       <c r="AX86" t="n">
-        <v>1</v>
+        <v>0.6024023806942085</v>
       </c>
       <c r="AY86" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="AZ86" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="BA86" t="n">
-        <v>130</v>
+        <v>20.4</v>
       </c>
       <c r="BB86" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="BC86" t="n">
         <v>0</v>
       </c>
       <c r="BD86" t="n">
-        <v>2</v>
+        <v>0.4016015871294724</v>
       </c>
       <c r="BE86" t="n">
         <v>0</v>
@@ -19398,38 +19398,38 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="n">
-        <v>4</v>
+        <v>0.8709410518064771</v>
       </c>
       <c r="Q87" t="n">
-        <v>2</v>
+        <v>0.4354705259032385</v>
       </c>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="n">
-        <v>4</v>
+        <v>1.161254735741969</v>
       </c>
       <c r="W87" t="n">
-        <v>8</v>
+        <v>2.322509471483939</v>
       </c>
       <c r="X87" t="n">
-        <v>2</v>
+        <v>0.5806273678709847</v>
       </c>
       <c r="Y87" t="n">
         <v>0</v>
       </c>
       <c r="Z87" t="n">
-        <v>5</v>
+        <v>0.7257842098387308</v>
       </c>
       <c r="AA87" t="n">
-        <v>4</v>
+        <v>0.5806273678709847</v>
       </c>
       <c r="AB87" t="n">
-        <v>1</v>
+        <v>0.1451568419677462</v>
       </c>
       <c r="AC87" t="n">
-        <v>8</v>
+        <v>1.161254735741969</v>
       </c>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr"/>
@@ -19453,40 +19453,40 @@
         <v>0.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>4</v>
+        <v>0.8709410518064771</v>
       </c>
       <c r="AT87" t="n">
-        <v>2</v>
+        <v>0.4354705259032385</v>
       </c>
       <c r="AU87" t="n">
-        <v>9</v>
+        <v>1.8870389455807</v>
       </c>
       <c r="AV87" t="n">
-        <v>12</v>
+        <v>2.903136839354923</v>
       </c>
       <c r="AW87" t="n">
-        <v>3</v>
+        <v>0.7257842098387308</v>
       </c>
       <c r="AX87" t="n">
-        <v>8</v>
+        <v>1.161254735741969</v>
       </c>
       <c r="AY87" t="n">
-        <v>0.89</v>
+        <v>0.62</v>
       </c>
       <c r="AZ87" t="n">
-        <v>2.67</v>
+        <v>1.6</v>
       </c>
       <c r="BA87" t="n">
-        <v>108</v>
+        <v>5.48</v>
       </c>
       <c r="BB87" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="BC87" t="n">
         <v>0</v>
       </c>
       <c r="BD87" t="n">
-        <v>3</v>
+        <v>0.7257842098387308</v>
       </c>
       <c r="BE87" t="n">
         <v>0</v>
@@ -19624,38 +19624,38 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="n">
-        <v>4</v>
+        <v>0.601531301175051</v>
       </c>
       <c r="Q88" t="n">
-        <v>2</v>
+        <v>0.3007656505875255</v>
       </c>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="n">
-        <v>4</v>
+        <v>0.8978079122015687</v>
       </c>
       <c r="W88" t="n">
-        <v>8</v>
+        <v>1.795615824403137</v>
       </c>
       <c r="X88" t="n">
-        <v>2</v>
+        <v>0.4489039561007844</v>
       </c>
       <c r="Y88" t="n">
         <v>0</v>
       </c>
       <c r="Z88" t="n">
-        <v>5</v>
+        <v>1.122259890251961</v>
       </c>
       <c r="AA88" t="n">
-        <v>4</v>
+        <v>0.8978079122015687</v>
       </c>
       <c r="AB88" t="n">
-        <v>1</v>
+        <v>0.2244519780503922</v>
       </c>
       <c r="AC88" t="n">
-        <v>8</v>
+        <v>1.795615824403137</v>
       </c>
       <c r="AD88" t="inlineStr"/>
       <c r="AE88" t="inlineStr"/>
@@ -19679,22 +19679,22 @@
         <v>0.335</v>
       </c>
       <c r="AS88" t="n">
-        <v>4</v>
+        <v>0.601531301175051</v>
       </c>
       <c r="AT88" t="n">
-        <v>2</v>
+        <v>0.3007656505875255</v>
       </c>
       <c r="AU88" t="n">
-        <v>9</v>
+        <v>2.020067802453529</v>
       </c>
       <c r="AV88" t="n">
-        <v>12</v>
+        <v>2.693423736604706</v>
       </c>
       <c r="AW88" t="n">
-        <v>3</v>
+        <v>0.6733559341511766</v>
       </c>
       <c r="AX88" t="n">
-        <v>8</v>
+        <v>1.795615824403137</v>
       </c>
       <c r="AY88" t="n">
         <v>0.89</v>
@@ -19703,7 +19703,7 @@
         <v>2.67</v>
       </c>
       <c r="BA88" t="n">
-        <v>108</v>
+        <v>5.44</v>
       </c>
       <c r="BB88" t="n">
         <v>0.33</v>
@@ -19712,7 +19712,7 @@
         <v>0</v>
       </c>
       <c r="BD88" t="n">
-        <v>3</v>
+        <v>0.6733559341511766</v>
       </c>
       <c r="BE88" t="n">
         <v>0</v>
@@ -19850,38 +19850,38 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="n">
-        <v>4</v>
+        <v>0.356148358125887</v>
       </c>
       <c r="Q89" t="n">
-        <v>2</v>
+        <v>0.1780741790629435</v>
       </c>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="n">
-        <v>4</v>
+        <v>0.6036412849591305</v>
       </c>
       <c r="W89" t="n">
-        <v>8</v>
+        <v>1.207282569918261</v>
       </c>
       <c r="X89" t="n">
-        <v>2</v>
+        <v>0.3018206424795652</v>
       </c>
       <c r="Y89" t="n">
         <v>0</v>
       </c>
       <c r="Z89" t="n">
-        <v>5</v>
+        <v>1.509103212397826</v>
       </c>
       <c r="AA89" t="n">
-        <v>4</v>
+        <v>1.207282569918261</v>
       </c>
       <c r="AB89" t="n">
-        <v>1</v>
+        <v>0.3018206424795652</v>
       </c>
       <c r="AC89" t="n">
-        <v>8</v>
+        <v>2.414565139836522</v>
       </c>
       <c r="AD89" t="inlineStr"/>
       <c r="AE89" t="inlineStr"/>
@@ -19905,40 +19905,40 @@
         <v>0.197</v>
       </c>
       <c r="AS89" t="n">
+        <v>0.356148358125887</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>0.1780741790629435</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>2.112744497356957</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>2.414565139836522</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>0.6036412849591305</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>2.414565139836522</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AZ89" t="n">
         <v>4</v>
       </c>
-      <c r="AT89" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU89" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV89" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW89" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX89" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY89" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AZ89" t="n">
-        <v>2.67</v>
-      </c>
       <c r="BA89" t="n">
-        <v>108</v>
+        <v>5.1</v>
       </c>
       <c r="BB89" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="BC89" t="n">
         <v>0</v>
       </c>
       <c r="BD89" t="n">
-        <v>3</v>
+        <v>0.6036412849591305</v>
       </c>
       <c r="BE89" t="n">
         <v>0</v>
@@ -20076,38 +20076,38 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="n">
-        <v>4</v>
+        <v>0.6262816693778775</v>
       </c>
       <c r="Q90" t="n">
-        <v>2</v>
+        <v>0.3131408346889388</v>
       </c>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="n">
-        <v>4</v>
+        <v>1.60585043430225</v>
       </c>
       <c r="W90" t="n">
-        <v>6</v>
+        <v>2.408775651453375</v>
       </c>
       <c r="X90" t="n">
-        <v>3</v>
+        <v>1.204387825726688</v>
       </c>
       <c r="Y90" t="n">
         <v>0</v>
       </c>
       <c r="Z90" t="n">
-        <v>4</v>
+        <v>0.8029252171511251</v>
       </c>
       <c r="AA90" t="n">
-        <v>5</v>
+        <v>1.003656521438906</v>
       </c>
       <c r="AB90" t="n">
         <v>0</v>
       </c>
       <c r="AC90" t="n">
-        <v>5</v>
+        <v>1.003656521438906</v>
       </c>
       <c r="AD90" t="inlineStr"/>
       <c r="AE90" t="inlineStr"/>
@@ -20131,40 +20131,40 @@
         <v>0.26</v>
       </c>
       <c r="AS90" t="n">
-        <v>4</v>
+        <v>0.6262816693778775</v>
       </c>
       <c r="AT90" t="n">
-        <v>2</v>
+        <v>0.3131408346889388</v>
       </c>
       <c r="AU90" t="n">
-        <v>8</v>
+        <v>2.408775651453375</v>
       </c>
       <c r="AV90" t="n">
-        <v>11</v>
+        <v>3.412432172892282</v>
       </c>
       <c r="AW90" t="n">
-        <v>3</v>
+        <v>1.204387825726688</v>
       </c>
       <c r="AX90" t="n">
-        <v>5</v>
+        <v>1.003656521438906</v>
       </c>
       <c r="AY90" t="n">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
       <c r="AZ90" t="n">
-        <v>1.67</v>
+        <v>0.83</v>
       </c>
       <c r="BA90" t="n">
-        <v>88</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="BB90" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="BC90" t="n">
         <v>1</v>
       </c>
       <c r="BD90" t="n">
-        <v>2</v>
+        <v>0.2043878257266876</v>
       </c>
       <c r="BE90" t="n">
         <v>1</v>
@@ -20302,38 +20302,38 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="n">
-        <v>4</v>
+        <v>0.3701862565708062</v>
       </c>
       <c r="Q91" t="n">
-        <v>2</v>
+        <v>0.1850931282854031</v>
       </c>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="n">
-        <v>4</v>
+        <v>1.322093773467165</v>
       </c>
       <c r="W91" t="n">
-        <v>6</v>
+        <v>1.983140660200747</v>
       </c>
       <c r="X91" t="n">
-        <v>3</v>
+        <v>0.9915703301003735</v>
       </c>
       <c r="Y91" t="n">
         <v>0</v>
       </c>
       <c r="Z91" t="n">
-        <v>4</v>
+        <v>1.322093773467165</v>
       </c>
       <c r="AA91" t="n">
-        <v>5</v>
+        <v>1.652617216833956</v>
       </c>
       <c r="AB91" t="n">
         <v>0</v>
       </c>
       <c r="AC91" t="n">
-        <v>5</v>
+        <v>1.652617216833956</v>
       </c>
       <c r="AD91" t="inlineStr"/>
       <c r="AE91" t="inlineStr"/>
@@ -20357,22 +20357,22 @@
         <v>0.14</v>
       </c>
       <c r="AS91" t="n">
-        <v>4</v>
+        <v>0.3701862565708062</v>
       </c>
       <c r="AT91" t="n">
-        <v>2</v>
+        <v>0.1850931282854031</v>
       </c>
       <c r="AU91" t="n">
-        <v>8</v>
+        <v>2.644187546934329</v>
       </c>
       <c r="AV91" t="n">
-        <v>11</v>
+        <v>3.635757877034703</v>
       </c>
       <c r="AW91" t="n">
-        <v>3</v>
+        <v>0.9915703301003735</v>
       </c>
       <c r="AX91" t="n">
-        <v>5</v>
+        <v>1.652617216833956</v>
       </c>
       <c r="AY91" t="n">
         <v>0.62</v>
@@ -20381,7 +20381,7 @@
         <v>1.67</v>
       </c>
       <c r="BA91" t="n">
-        <v>88</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="BB91" t="n">
         <v>0.38</v>
@@ -20390,7 +20390,7 @@
         <v>1</v>
       </c>
       <c r="BD91" t="n">
-        <v>2</v>
+        <v>-0.008429669899626457</v>
       </c>
       <c r="BE91" t="n">
         <v>1</v>
@@ -20528,38 +20528,38 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="n">
-        <v>4</v>
+        <v>0.2084861098395473</v>
       </c>
       <c r="Q92" t="n">
-        <v>2</v>
+        <v>0.1042430549197736</v>
       </c>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="n">
-        <v>4</v>
+        <v>0.9064613471284665</v>
       </c>
       <c r="W92" t="n">
-        <v>6</v>
+        <v>1.3596920206927</v>
       </c>
       <c r="X92" t="n">
-        <v>3</v>
+        <v>0.6798460103463498</v>
       </c>
       <c r="Y92" t="n">
         <v>0</v>
       </c>
       <c r="Z92" t="n">
-        <v>4</v>
+        <v>1.812922694256933</v>
       </c>
       <c r="AA92" t="n">
-        <v>5</v>
+        <v>2.266153367821166</v>
       </c>
       <c r="AB92" t="n">
         <v>0</v>
       </c>
       <c r="AC92" t="n">
-        <v>5</v>
+        <v>2.266153367821166</v>
       </c>
       <c r="AD92" t="inlineStr"/>
       <c r="AE92" t="inlineStr"/>
@@ -20583,40 +20583,40 @@
         <v>0.077</v>
       </c>
       <c r="AS92" t="n">
-        <v>4</v>
+        <v>0.2084861098395473</v>
       </c>
       <c r="AT92" t="n">
-        <v>2</v>
+        <v>0.1042430549197736</v>
       </c>
       <c r="AU92" t="n">
-        <v>8</v>
+        <v>2.719384041385399</v>
       </c>
       <c r="AV92" t="n">
-        <v>11</v>
+        <v>3.625845388513866</v>
       </c>
       <c r="AW92" t="n">
-        <v>3</v>
+        <v>0.6798460103463498</v>
       </c>
       <c r="AX92" t="n">
-        <v>5</v>
+        <v>2.266153367821166</v>
       </c>
       <c r="AY92" t="n">
-        <v>0.62</v>
+        <v>0.83</v>
       </c>
       <c r="AZ92" t="n">
-        <v>1.67</v>
+        <v>3.33</v>
       </c>
       <c r="BA92" t="n">
-        <v>88</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="BB92" t="n">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="BC92" t="n">
         <v>1</v>
       </c>
       <c r="BD92" t="n">
-        <v>2</v>
+        <v>-0.3201539896536502</v>
       </c>
       <c r="BE92" t="n">
         <v>1</v>
@@ -20754,38 +20754,38 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="n">
-        <v>4</v>
+        <v>0.996108063494774</v>
       </c>
       <c r="Q93" t="n">
-        <v>2</v>
+        <v>0.498054031747387</v>
       </c>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="n">
-        <v>4</v>
+        <v>1.423011519278249</v>
       </c>
       <c r="W93" t="n">
-        <v>6</v>
+        <v>2.134517278917373</v>
       </c>
       <c r="X93" t="n">
-        <v>3</v>
+        <v>1.067258639458686</v>
       </c>
       <c r="Y93" t="n">
         <v>0</v>
       </c>
       <c r="Z93" t="n">
-        <v>6</v>
+        <v>1.067258639458686</v>
       </c>
       <c r="AA93" t="n">
-        <v>5</v>
+        <v>0.8893821995489054</v>
       </c>
       <c r="AB93" t="n">
         <v>0</v>
       </c>
       <c r="AC93" t="n">
-        <v>1</v>
+        <v>0.1778764399097811</v>
       </c>
       <c r="AD93" t="inlineStr"/>
       <c r="AE93" t="inlineStr"/>
@@ -20809,40 +20809,40 @@
         <v>0.467</v>
       </c>
       <c r="AS93" t="n">
-        <v>4</v>
+        <v>0.996108063494774</v>
       </c>
       <c r="AT93" t="n">
-        <v>2</v>
+        <v>0.498054031747387</v>
       </c>
       <c r="AU93" t="n">
-        <v>10</v>
+        <v>2.490270158736935</v>
       </c>
       <c r="AV93" t="n">
-        <v>11</v>
+        <v>3.023899478466278</v>
       </c>
       <c r="AW93" t="n">
-        <v>3</v>
+        <v>1.067258639458686</v>
       </c>
       <c r="AX93" t="n">
-        <v>1</v>
+        <v>0.1778764399097811</v>
       </c>
       <c r="AY93" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AZ93" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="BA93" t="n">
-        <v>110</v>
+        <v>7.53</v>
       </c>
       <c r="BB93" t="n">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="BC93" t="n">
         <v>1</v>
       </c>
       <c r="BD93" t="n">
-        <v>2</v>
+        <v>0.06725863945868649</v>
       </c>
       <c r="BE93" t="n">
         <v>1</v>
@@ -20980,38 +20980,38 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="n">
-        <v>4</v>
+        <v>0.5422977154202354</v>
       </c>
       <c r="Q94" t="n">
-        <v>2</v>
+        <v>0.2711488577101177</v>
       </c>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="n">
-        <v>4</v>
+        <v>1.506382542833987</v>
       </c>
       <c r="W94" t="n">
-        <v>6</v>
+        <v>2.259573814250981</v>
       </c>
       <c r="X94" t="n">
-        <v>3</v>
+        <v>1.12978690712549</v>
       </c>
       <c r="Y94" t="n">
         <v>0</v>
       </c>
       <c r="Z94" t="n">
-        <v>6</v>
+        <v>2.259573814250981</v>
       </c>
       <c r="AA94" t="n">
-        <v>5</v>
+        <v>1.882978178542484</v>
       </c>
       <c r="AB94" t="n">
         <v>0</v>
       </c>
       <c r="AC94" t="n">
-        <v>1</v>
+        <v>0.3765956357084969</v>
       </c>
       <c r="AD94" t="inlineStr"/>
       <c r="AE94" t="inlineStr"/>
@@ -21035,22 +21035,22 @@
         <v>0.18</v>
       </c>
       <c r="AS94" t="n">
-        <v>4</v>
+        <v>0.5422977154202354</v>
       </c>
       <c r="AT94" t="n">
-        <v>2</v>
+        <v>0.2711488577101177</v>
       </c>
       <c r="AU94" t="n">
-        <v>10</v>
+        <v>3.765956357084968</v>
       </c>
       <c r="AV94" t="n">
-        <v>11</v>
+        <v>4.142551992793465</v>
       </c>
       <c r="AW94" t="n">
-        <v>3</v>
+        <v>1.12978690712549</v>
       </c>
       <c r="AX94" t="n">
-        <v>1</v>
+        <v>0.3765956357084969</v>
       </c>
       <c r="AY94" t="n">
         <v>0.1</v>
@@ -21059,7 +21059,7 @@
         <v>0.33</v>
       </c>
       <c r="BA94" t="n">
-        <v>110</v>
+        <v>15.6</v>
       </c>
       <c r="BB94" t="n">
         <v>0.3</v>
@@ -21068,7 +21068,7 @@
         <v>1</v>
       </c>
       <c r="BD94" t="n">
-        <v>2</v>
+        <v>0.1297869071254905</v>
       </c>
       <c r="BE94" t="n">
         <v>1</v>
@@ -21206,38 +21206,38 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="n">
-        <v>4</v>
+        <v>0.3032699499138014</v>
       </c>
       <c r="Q95" t="n">
-        <v>2</v>
+        <v>0.1516349749569007</v>
       </c>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="n">
-        <v>4</v>
+        <v>1.166422884283851</v>
       </c>
       <c r="W95" t="n">
-        <v>6</v>
+        <v>1.749634326425777</v>
       </c>
       <c r="X95" t="n">
-        <v>3</v>
+        <v>0.8748171632128885</v>
       </c>
       <c r="Y95" t="n">
         <v>0</v>
       </c>
       <c r="Z95" t="n">
-        <v>6</v>
+        <v>3.499268652851554</v>
       </c>
       <c r="AA95" t="n">
-        <v>5</v>
+        <v>2.916057210709628</v>
       </c>
       <c r="AB95" t="n">
         <v>0</v>
       </c>
       <c r="AC95" t="n">
-        <v>1</v>
+        <v>0.5832114421419257</v>
       </c>
       <c r="AD95" t="inlineStr"/>
       <c r="AE95" t="inlineStr"/>
@@ -21261,40 +21261,40 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="AS95" t="n">
-        <v>4</v>
+        <v>0.3032699499138014</v>
       </c>
       <c r="AT95" t="n">
-        <v>2</v>
+        <v>0.1516349749569007</v>
       </c>
       <c r="AU95" t="n">
-        <v>10</v>
+        <v>4.665691537135405</v>
       </c>
       <c r="AV95" t="n">
-        <v>11</v>
+        <v>4.665691537135405</v>
       </c>
       <c r="AW95" t="n">
-        <v>3</v>
+        <v>0.8748171632128885</v>
       </c>
       <c r="AX95" t="n">
-        <v>1</v>
+        <v>0.5832114421419257</v>
       </c>
       <c r="AY95" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="AZ95" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="BA95" t="n">
-        <v>110</v>
+        <v>21.77</v>
       </c>
       <c r="BB95" t="n">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="BC95" t="n">
         <v>1</v>
       </c>
       <c r="BD95" t="n">
-        <v>2</v>
+        <v>-0.1251828367871115</v>
       </c>
       <c r="BE95" t="n">
         <v>1</v>
@@ -21432,38 +21432,38 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="n">
-        <v>4</v>
+        <v>0.6506351027843993</v>
       </c>
       <c r="Q96" t="n">
-        <v>2</v>
+        <v>0.3253175513921996</v>
       </c>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="n">
-        <v>4</v>
+        <v>1.275755103498822</v>
       </c>
       <c r="W96" t="n">
-        <v>6</v>
+        <v>1.913632655248233</v>
       </c>
       <c r="X96" t="n">
-        <v>3</v>
+        <v>0.9568163276241166</v>
       </c>
       <c r="Y96" t="n">
         <v>0</v>
       </c>
       <c r="Z96" t="n">
-        <v>5</v>
+        <v>0.7973469396867638</v>
       </c>
       <c r="AA96" t="n">
-        <v>4</v>
+        <v>0.6378775517494111</v>
       </c>
       <c r="AB96" t="n">
-        <v>1</v>
+        <v>0.1594693879373528</v>
       </c>
       <c r="AC96" t="n">
-        <v>8</v>
+        <v>1.275755103498822</v>
       </c>
       <c r="AD96" t="inlineStr"/>
       <c r="AE96" t="inlineStr"/>
@@ -21487,40 +21487,40 @@
         <v>0.34</v>
       </c>
       <c r="AS96" t="n">
-        <v>4</v>
+        <v>0.6506351027843993</v>
       </c>
       <c r="AT96" t="n">
-        <v>2</v>
+        <v>0.3253175513921996</v>
       </c>
       <c r="AU96" t="n">
-        <v>9</v>
+        <v>2.073102043185586</v>
       </c>
       <c r="AV96" t="n">
-        <v>10</v>
+        <v>2.551510206997644</v>
       </c>
       <c r="AW96" t="n">
-        <v>4</v>
+        <v>1.116285715561469</v>
       </c>
       <c r="AX96" t="n">
-        <v>8</v>
+        <v>1.275755103498822</v>
       </c>
       <c r="AY96" t="n">
-        <v>0.89</v>
+        <v>0.62</v>
       </c>
       <c r="AZ96" t="n">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="BA96" t="n">
-        <v>90</v>
+        <v>5.29</v>
       </c>
       <c r="BB96" t="n">
-        <v>0.44</v>
+        <v>0.54</v>
       </c>
       <c r="BC96" t="n">
         <v>1</v>
       </c>
       <c r="BD96" t="n">
-        <v>3</v>
+        <v>0.1162857155614694</v>
       </c>
       <c r="BE96" t="n">
         <v>1</v>
@@ -21658,38 +21658,38 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="n">
-        <v>4</v>
+        <v>0.4070323561649412</v>
       </c>
       <c r="Q97" t="n">
-        <v>2</v>
+        <v>0.2035161780824706</v>
       </c>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="n">
-        <v>4</v>
+        <v>0.9691246575355742</v>
       </c>
       <c r="W97" t="n">
-        <v>6</v>
+        <v>1.453686986303361</v>
       </c>
       <c r="X97" t="n">
-        <v>3</v>
+        <v>0.7268434931516806</v>
       </c>
       <c r="Y97" t="n">
         <v>0</v>
       </c>
       <c r="Z97" t="n">
-        <v>5</v>
+        <v>1.211405821919468</v>
       </c>
       <c r="AA97" t="n">
-        <v>4</v>
+        <v>0.9691246575355742</v>
       </c>
       <c r="AB97" t="n">
-        <v>1</v>
+        <v>0.2422811643838935</v>
       </c>
       <c r="AC97" t="n">
-        <v>8</v>
+        <v>1.938249315071148</v>
       </c>
       <c r="AD97" t="inlineStr"/>
       <c r="AE97" t="inlineStr"/>
@@ -21713,22 +21713,22 @@
         <v>0.21</v>
       </c>
       <c r="AS97" t="n">
-        <v>4</v>
+        <v>0.4070323561649412</v>
       </c>
       <c r="AT97" t="n">
-        <v>2</v>
+        <v>0.2035161780824706</v>
       </c>
       <c r="AU97" t="n">
-        <v>9</v>
+        <v>2.180530479455042</v>
       </c>
       <c r="AV97" t="n">
-        <v>10</v>
+        <v>2.422811643838935</v>
       </c>
       <c r="AW97" t="n">
-        <v>4</v>
+        <v>0.9691246575355742</v>
       </c>
       <c r="AX97" t="n">
-        <v>8</v>
+        <v>1.938249315071148</v>
       </c>
       <c r="AY97" t="n">
         <v>0.89</v>
@@ -21737,7 +21737,7 @@
         <v>2</v>
       </c>
       <c r="BA97" t="n">
-        <v>90</v>
+        <v>5.28</v>
       </c>
       <c r="BB97" t="n">
         <v>0.44</v>
@@ -21746,7 +21746,7 @@
         <v>1</v>
       </c>
       <c r="BD97" t="n">
-        <v>3</v>
+        <v>-0.0308753424644258</v>
       </c>
       <c r="BE97" t="n">
         <v>1</v>
@@ -21884,38 +21884,38 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
-        <v>4</v>
+        <v>0.2328978981908869</v>
       </c>
       <c r="Q98" t="n">
-        <v>2</v>
+        <v>0.1164489490954434</v>
       </c>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="n">
-        <v>4</v>
+        <v>0.6294537788942889</v>
       </c>
       <c r="W98" t="n">
-        <v>6</v>
+        <v>0.9441806683414333</v>
       </c>
       <c r="X98" t="n">
-        <v>3</v>
+        <v>0.4720903341707167</v>
       </c>
       <c r="Y98" t="n">
         <v>0</v>
       </c>
       <c r="Z98" t="n">
-        <v>5</v>
+        <v>1.573634447235722</v>
       </c>
       <c r="AA98" t="n">
-        <v>4</v>
+        <v>1.258907557788578</v>
       </c>
       <c r="AB98" t="n">
-        <v>1</v>
+        <v>0.3147268894471444</v>
       </c>
       <c r="AC98" t="n">
-        <v>8</v>
+        <v>2.517815115577156</v>
       </c>
       <c r="AD98" t="inlineStr"/>
       <c r="AE98" t="inlineStr"/>
@@ -21939,40 +21939,40 @@
         <v>0.123</v>
       </c>
       <c r="AS98" t="n">
-        <v>4</v>
+        <v>0.2328978981908869</v>
       </c>
       <c r="AT98" t="n">
-        <v>2</v>
+        <v>0.1164489490954434</v>
       </c>
       <c r="AU98" t="n">
-        <v>9</v>
+        <v>2.203088226130011</v>
       </c>
       <c r="AV98" t="n">
-        <v>10</v>
+        <v>2.203088226130011</v>
       </c>
       <c r="AW98" t="n">
-        <v>4</v>
+        <v>0.7868172236178611</v>
       </c>
       <c r="AX98" t="n">
-        <v>8</v>
+        <v>2.517815115577156</v>
       </c>
       <c r="AY98" t="n">
-        <v>0.89</v>
+        <v>1.14</v>
       </c>
       <c r="AZ98" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="BA98" t="n">
-        <v>90</v>
+        <v>4.85</v>
       </c>
       <c r="BB98" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="BC98" t="n">
         <v>1</v>
       </c>
       <c r="BD98" t="n">
-        <v>3</v>
+        <v>-0.2131827763821389</v>
       </c>
       <c r="BE98" t="n">
         <v>1</v>
@@ -22110,38 +22110,38 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="n">
-        <v>4</v>
+        <v>0.4034413547560692</v>
       </c>
       <c r="Q99" t="n">
-        <v>2</v>
+        <v>0.2017206773780346</v>
       </c>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="n">
-        <v>4</v>
+        <v>0.4841296257072831</v>
       </c>
       <c r="W99" t="n">
-        <v>10</v>
+        <v>1.210324064268208</v>
       </c>
       <c r="X99" t="n">
-        <v>2</v>
+        <v>0.2420648128536415</v>
       </c>
       <c r="Y99" t="n">
         <v>0</v>
       </c>
       <c r="Z99" t="n">
-        <v>5</v>
+        <v>1.51290508033526</v>
       </c>
       <c r="AA99" t="n">
-        <v>4</v>
+        <v>1.210324064268208</v>
       </c>
       <c r="AB99" t="n">
-        <v>1</v>
+        <v>0.3025810160670519</v>
       </c>
       <c r="AC99" t="n">
-        <v>8</v>
+        <v>2.420648128536415</v>
       </c>
       <c r="AD99" t="inlineStr"/>
       <c r="AE99" t="inlineStr"/>
@@ -22165,40 +22165,40 @@
         <v>0.238</v>
       </c>
       <c r="AS99" t="n">
-        <v>4</v>
+        <v>0.4034413547560692</v>
       </c>
       <c r="AT99" t="n">
-        <v>2</v>
+        <v>0.2017206773780346</v>
       </c>
       <c r="AU99" t="n">
-        <v>9</v>
+        <v>1.997034706042543</v>
       </c>
       <c r="AV99" t="n">
-        <v>14</v>
+        <v>2.420648128536415</v>
       </c>
       <c r="AW99" t="n">
-        <v>3</v>
+        <v>0.5446458289206935</v>
       </c>
       <c r="AX99" t="n">
-        <v>8</v>
+        <v>2.420648128536415</v>
       </c>
       <c r="AY99" t="n">
-        <v>0.89</v>
+        <v>1.21</v>
       </c>
       <c r="AZ99" t="n">
-        <v>2.67</v>
+        <v>4.44</v>
       </c>
       <c r="BA99" t="n">
-        <v>126</v>
+        <v>4.83</v>
       </c>
       <c r="BB99" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="BC99" t="n">
         <v>0</v>
       </c>
       <c r="BD99" t="n">
-        <v>3</v>
+        <v>0.5446458289206935</v>
       </c>
       <c r="BE99" t="n">
         <v>0</v>
@@ -22336,23 +22336,23 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="Q100" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="W100" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="X100" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="Y100" t="n">
         <v>0</v>
@@ -22383,19 +22383,19 @@
         <v>0.238</v>
       </c>
       <c r="AS100" t="n">
-        <v>4</v>
+        <v>1.354903395387909</v>
       </c>
       <c r="AT100" t="n">
-        <v>2</v>
+        <v>0.6774516976939544</v>
       </c>
       <c r="AU100" t="n">
-        <v>4</v>
+        <v>1.625884074465491</v>
       </c>
       <c r="AV100" t="n">
-        <v>10</v>
+        <v>4.064710186163726</v>
       </c>
       <c r="AW100" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="AX100" t="n">
         <v>0</v>
@@ -22407,7 +22407,7 @@
         <v>0</v>
       </c>
       <c r="BA100" t="n">
-        <v>40</v>
+        <v>6.61</v>
       </c>
       <c r="BB100" t="n">
         <v>0.5</v>
@@ -22416,7 +22416,7 @@
         <v>0</v>
       </c>
       <c r="BD100" t="n">
-        <v>2</v>
+        <v>0.8129420372327453</v>
       </c>
       <c r="BE100" t="n">
         <v>0</v>
@@ -22554,38 +22554,38 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="n">
-        <v>4</v>
+        <v>0.3967068570383532</v>
       </c>
       <c r="Q101" t="n">
-        <v>2</v>
+        <v>0.1983534285191766</v>
       </c>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="n">
-        <v>5</v>
+        <v>0.5950602855575298</v>
       </c>
       <c r="W101" t="n">
-        <v>12</v>
+        <v>1.428144685338071</v>
       </c>
       <c r="X101" t="n">
-        <v>2</v>
+        <v>0.2380241142230119</v>
       </c>
       <c r="Y101" t="n">
         <v>0</v>
       </c>
       <c r="Z101" t="n">
-        <v>5</v>
+        <v>1.487650713893825</v>
       </c>
       <c r="AA101" t="n">
-        <v>4</v>
+        <v>1.19012057111506</v>
       </c>
       <c r="AB101" t="n">
-        <v>1</v>
+        <v>0.2975301427787649</v>
       </c>
       <c r="AC101" t="n">
-        <v>8</v>
+        <v>2.38024114223012</v>
       </c>
       <c r="AD101" t="inlineStr"/>
       <c r="AE101" t="inlineStr"/>
@@ -22609,40 +22609,40 @@
         <v>0.238</v>
       </c>
       <c r="AS101" t="n">
-        <v>4</v>
+        <v>0.3967068570383532</v>
       </c>
       <c r="AT101" t="n">
-        <v>2</v>
+        <v>0.1983534285191766</v>
       </c>
       <c r="AU101" t="n">
-        <v>10</v>
+        <v>2.082710999451354</v>
       </c>
       <c r="AV101" t="n">
-        <v>16</v>
+        <v>2.618265256453131</v>
       </c>
       <c r="AW101" t="n">
-        <v>3</v>
+        <v>0.5355542570017768</v>
       </c>
       <c r="AX101" t="n">
-        <v>8</v>
+        <v>2.38024114223012</v>
       </c>
       <c r="AY101" t="n">
-        <v>0.8</v>
+        <v>1.14</v>
       </c>
       <c r="AZ101" t="n">
-        <v>2.67</v>
+        <v>4.44</v>
       </c>
       <c r="BA101" t="n">
-        <v>160</v>
+        <v>5.45</v>
       </c>
       <c r="BB101" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="BC101" t="n">
         <v>0</v>
       </c>
       <c r="BD101" t="n">
-        <v>3</v>
+        <v>0.5355542570017768</v>
       </c>
       <c r="BE101" t="n">
         <v>0</v>
@@ -22780,38 +22780,38 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="n">
-        <v>4</v>
+        <v>0.4376834988068748</v>
       </c>
       <c r="Q102" t="n">
-        <v>2</v>
+        <v>0.2188417494034374</v>
       </c>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="n">
-        <v>4</v>
+        <v>0.7002935980909997</v>
       </c>
       <c r="W102" t="n">
-        <v>10</v>
+        <v>1.750733995227499</v>
       </c>
       <c r="X102" t="n">
-        <v>2</v>
+        <v>0.3501467990454998</v>
       </c>
       <c r="Y102" t="n">
         <v>0</v>
       </c>
       <c r="Z102" t="n">
-        <v>4</v>
+        <v>1.400587196181999</v>
       </c>
       <c r="AA102" t="n">
-        <v>4</v>
+        <v>1.400587196181999</v>
       </c>
       <c r="AB102" t="n">
-        <v>1</v>
+        <v>0.3501467990454998</v>
       </c>
       <c r="AC102" t="n">
-        <v>6</v>
+        <v>2.100880794272999</v>
       </c>
       <c r="AD102" t="inlineStr"/>
       <c r="AE102" t="inlineStr"/>
@@ -22835,40 +22835,40 @@
         <v>0.208</v>
       </c>
       <c r="AS102" t="n">
-        <v>4</v>
+        <v>0.4376834988068748</v>
       </c>
       <c r="AT102" t="n">
-        <v>2</v>
+        <v>0.2188417494034374</v>
       </c>
       <c r="AU102" t="n">
-        <v>8</v>
+        <v>2.100880794272999</v>
       </c>
       <c r="AV102" t="n">
-        <v>14</v>
+        <v>3.151321191409498</v>
       </c>
       <c r="AW102" t="n">
+        <v>0.7002935980909997</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>2.100880794272999</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ102" t="n">
         <v>3</v>
       </c>
-      <c r="AX102" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY102" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AZ102" t="n">
-        <v>2</v>
-      </c>
       <c r="BA102" t="n">
-        <v>112</v>
+        <v>6.62</v>
       </c>
       <c r="BB102" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="BC102" t="n">
         <v>0</v>
       </c>
       <c r="BD102" t="n">
-        <v>3</v>
+        <v>0.7002935980909997</v>
       </c>
       <c r="BE102" t="n">
         <v>0</v>
@@ -23006,38 +23006,38 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="n">
-        <v>4</v>
+        <v>0.3342882835299505</v>
       </c>
       <c r="Q103" t="n">
-        <v>2</v>
+        <v>0.1671441417649753</v>
       </c>
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="n">
-        <v>4</v>
+        <v>0.3677171118829456</v>
       </c>
       <c r="W103" t="n">
-        <v>10</v>
+        <v>0.9192927797073641</v>
       </c>
       <c r="X103" t="n">
-        <v>2</v>
+        <v>0.1838585559414728</v>
       </c>
       <c r="Y103" t="n">
         <v>0</v>
       </c>
       <c r="Z103" t="n">
-        <v>4</v>
+        <v>1.671441417649753</v>
       </c>
       <c r="AA103" t="n">
-        <v>4</v>
+        <v>1.671441417649753</v>
       </c>
       <c r="AB103" t="n">
-        <v>1</v>
+        <v>0.4178603544124382</v>
       </c>
       <c r="AC103" t="n">
-        <v>6</v>
+        <v>2.507162126474629</v>
       </c>
       <c r="AD103" t="inlineStr"/>
       <c r="AE103" t="inlineStr"/>
@@ -23061,40 +23061,40 @@
         <v>0.164</v>
       </c>
       <c r="AS103" t="n">
-        <v>4</v>
+        <v>0.3342882835299505</v>
       </c>
       <c r="AT103" t="n">
-        <v>2</v>
+        <v>0.1671441417649753</v>
       </c>
       <c r="AU103" t="n">
-        <v>8</v>
+        <v>2.039158529532698</v>
       </c>
       <c r="AV103" t="n">
-        <v>14</v>
+        <v>2.590734197357117</v>
       </c>
       <c r="AW103" t="n">
-        <v>3</v>
+        <v>0.601718910353911</v>
       </c>
       <c r="AX103" t="n">
-        <v>6</v>
+        <v>2.507162126474629</v>
       </c>
       <c r="AY103" t="n">
-        <v>0.75</v>
+        <v>1.23</v>
       </c>
       <c r="AZ103" t="n">
-        <v>2</v>
+        <v>4.17</v>
       </c>
       <c r="BA103" t="n">
-        <v>112</v>
+        <v>5.28</v>
       </c>
       <c r="BB103" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="BC103" t="n">
         <v>0</v>
       </c>
       <c r="BD103" t="n">
-        <v>3</v>
+        <v>0.601718910353911</v>
       </c>
       <c r="BE103" t="n">
         <v>0</v>
@@ -23232,38 +23232,38 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="n">
-        <v>4</v>
+        <v>0.2463079667326608</v>
       </c>
       <c r="Q104" t="n">
-        <v>2</v>
+        <v>0.1231539833663304</v>
       </c>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="n">
-        <v>4</v>
+        <v>0.3940927467722573</v>
       </c>
       <c r="W104" t="n">
-        <v>10</v>
+        <v>0.9852318669306432</v>
       </c>
       <c r="X104" t="n">
-        <v>2</v>
+        <v>0.1970463733861287</v>
       </c>
       <c r="Y104" t="n">
         <v>0</v>
       </c>
       <c r="Z104" t="n">
-        <v>4</v>
+        <v>1.748786563801892</v>
       </c>
       <c r="AA104" t="n">
-        <v>4</v>
+        <v>1.748786563801892</v>
       </c>
       <c r="AB104" t="n">
-        <v>1</v>
+        <v>0.4371966409504729</v>
       </c>
       <c r="AC104" t="n">
-        <v>6</v>
+        <v>2.623179845702837</v>
       </c>
       <c r="AD104" t="inlineStr"/>
       <c r="AE104" t="inlineStr"/>
@@ -23287,40 +23287,40 @@
         <v>0.115</v>
       </c>
       <c r="AS104" t="n">
-        <v>4</v>
+        <v>0.2463079667326608</v>
       </c>
       <c r="AT104" t="n">
-        <v>2</v>
+        <v>0.1231539833663304</v>
       </c>
       <c r="AU104" t="n">
-        <v>8</v>
+        <v>2.142879310574149</v>
       </c>
       <c r="AV104" t="n">
-        <v>14</v>
+        <v>2.734018430732535</v>
       </c>
       <c r="AW104" t="n">
-        <v>3</v>
+        <v>0.6342430143366016</v>
       </c>
       <c r="AX104" t="n">
-        <v>6</v>
+        <v>2.623179845702837</v>
       </c>
       <c r="AY104" t="n">
-        <v>0.75</v>
+        <v>1.22</v>
       </c>
       <c r="AZ104" t="n">
-        <v>2</v>
+        <v>4.14</v>
       </c>
       <c r="BA104" t="n">
-        <v>112</v>
+        <v>5.86</v>
       </c>
       <c r="BB104" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="BC104" t="n">
         <v>0</v>
       </c>
       <c r="BD104" t="n">
-        <v>3</v>
+        <v>0.6342430143366016</v>
       </c>
       <c r="BE104" t="n">
         <v>0</v>
@@ -23458,26 +23458,26 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="n">
-        <v>4</v>
+        <v>0.4528339480554178</v>
       </c>
       <c r="Q105" t="n">
-        <v>2</v>
+        <v>0.2264169740277089</v>
       </c>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="n">
-        <v>5</v>
+        <v>1.698127305207817</v>
       </c>
       <c r="W105" t="n">
-        <v>4</v>
+        <v>1.358501844166254</v>
       </c>
       <c r="X105" t="n">
-        <v>1</v>
+        <v>0.3396254610415634</v>
       </c>
       <c r="Y105" t="n">
-        <v>8</v>
+        <v>2.717003688332507</v>
       </c>
       <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="inlineStr"/>
@@ -23505,22 +23505,22 @@
         <v>0.167</v>
       </c>
       <c r="AS105" t="n">
-        <v>4</v>
+        <v>0.4528339480554178</v>
       </c>
       <c r="AT105" t="n">
-        <v>2</v>
+        <v>0.2264169740277089</v>
       </c>
       <c r="AU105" t="n">
-        <v>5</v>
+        <v>1.698127305207817</v>
       </c>
       <c r="AV105" t="n">
-        <v>4</v>
+        <v>1.358501844166254</v>
       </c>
       <c r="AW105" t="n">
-        <v>1</v>
+        <v>0.3396254610415634</v>
       </c>
       <c r="AX105" t="n">
-        <v>8</v>
+        <v>2.717003688332507</v>
       </c>
       <c r="AY105" t="n">
         <v>1.6</v>
@@ -23529,7 +23529,7 @@
         <v>8</v>
       </c>
       <c r="BA105" t="n">
-        <v>20</v>
+        <v>2.31</v>
       </c>
       <c r="BB105" t="n">
         <v>0.2</v>
@@ -23538,7 +23538,7 @@
         <v>0</v>
       </c>
       <c r="BD105" t="n">
-        <v>1</v>
+        <v>0.3396254610415634</v>
       </c>
       <c r="BE105" t="n">
         <v>0</v>
@@ -23676,26 +23676,26 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="n">
-        <v>4</v>
+        <v>1.083564493758669</v>
       </c>
       <c r="Q106" t="n">
-        <v>2</v>
+        <v>0.5417822468793343</v>
       </c>
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="n">
-        <v>4</v>
+        <v>1.083564493758669</v>
       </c>
       <c r="W106" t="n">
-        <v>4</v>
+        <v>1.083564493758669</v>
       </c>
       <c r="X106" t="n">
-        <v>1</v>
+        <v>0.2708911234396671</v>
       </c>
       <c r="Y106" t="n">
-        <v>6</v>
+        <v>1.625346740638003</v>
       </c>
       <c r="Z106" t="inlineStr"/>
       <c r="AA106" t="inlineStr"/>
@@ -23723,22 +23723,22 @@
         <v>0.25</v>
       </c>
       <c r="AS106" t="n">
-        <v>4</v>
+        <v>1.083564493758669</v>
       </c>
       <c r="AT106" t="n">
-        <v>2</v>
+        <v>0.5417822468793343</v>
       </c>
       <c r="AU106" t="n">
-        <v>4</v>
+        <v>1.083564493758669</v>
       </c>
       <c r="AV106" t="n">
-        <v>4</v>
+        <v>1.083564493758669</v>
       </c>
       <c r="AW106" t="n">
-        <v>1</v>
+        <v>0.2708911234396671</v>
       </c>
       <c r="AX106" t="n">
-        <v>6</v>
+        <v>1.625346740638003</v>
       </c>
       <c r="AY106" t="n">
         <v>1.5</v>
@@ -23747,7 +23747,7 @@
         <v>6</v>
       </c>
       <c r="BA106" t="n">
-        <v>16</v>
+        <v>1.17</v>
       </c>
       <c r="BB106" t="n">
         <v>0.25</v>
@@ -23756,7 +23756,7 @@
         <v>0</v>
       </c>
       <c r="BD106" t="n">
-        <v>1</v>
+        <v>0.2708911234396671</v>
       </c>
       <c r="BE106" t="n">
         <v>0</v>
@@ -23894,26 +23894,26 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="n">
-        <v>4</v>
+        <v>0.7256578088036806</v>
       </c>
       <c r="Q107" t="n">
-        <v>2</v>
+        <v>0.3628289044018403</v>
       </c>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="n">
-        <v>4</v>
+        <v>1.451315617607361</v>
       </c>
       <c r="W107" t="n">
-        <v>4</v>
+        <v>1.451315617607361</v>
       </c>
       <c r="X107" t="n">
-        <v>1</v>
+        <v>0.3628289044018403</v>
       </c>
       <c r="Y107" t="n">
-        <v>6</v>
+        <v>2.176973426411042</v>
       </c>
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr"/>
@@ -23941,22 +23941,22 @@
         <v>0.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>4</v>
+        <v>0.7256578088036806</v>
       </c>
       <c r="AT107" t="n">
-        <v>2</v>
+        <v>0.3628289044018403</v>
       </c>
       <c r="AU107" t="n">
-        <v>4</v>
+        <v>1.451315617607361</v>
       </c>
       <c r="AV107" t="n">
-        <v>4</v>
+        <v>1.451315617607361</v>
       </c>
       <c r="AW107" t="n">
-        <v>1</v>
+        <v>0.3628289044018403</v>
       </c>
       <c r="AX107" t="n">
-        <v>6</v>
+        <v>2.176973426411042</v>
       </c>
       <c r="AY107" t="n">
         <v>1.5</v>
@@ -23965,7 +23965,7 @@
         <v>6</v>
       </c>
       <c r="BA107" t="n">
-        <v>16</v>
+        <v>2.11</v>
       </c>
       <c r="BB107" t="n">
         <v>0.25</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="BD107" t="n">
-        <v>1</v>
+        <v>0.3628289044018403</v>
       </c>
       <c r="BE107" t="n">
         <v>0</v>
